--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
@@ -448,9 +448,6 @@
     <t>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</t>
   </si>
   <si>
-    <t>XXI-В-28-2б-500</t>
-  </si>
-  <si>
     <t>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>По ТТН №1129700 от 05.11.2019 г. 20 шт.</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2б-500-1</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2195,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="637">
+  <cellXfs count="638">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3602,65 +3602,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3752,6 +3695,69 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4006,6 +4012,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4017,12 +4026,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6281,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6306,7 +6309,7 @@
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="392"/>
       <c r="B1" s="484" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="392"/>
       <c r="D1" s="485" t="str">
@@ -6339,17 +6342,17 @@
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="513" t="s">
+      <c r="A3" s="494" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="513"/>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513"/>
-      <c r="F3" s="513"/>
-      <c r="G3" s="513"/>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513"/>
+      <c r="B3" s="494"/>
+      <c r="C3" s="494"/>
+      <c r="D3" s="494"/>
+      <c r="E3" s="494"/>
+      <c r="F3" s="494"/>
+      <c r="G3" s="494"/>
+      <c r="H3" s="494"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -6406,7 +6409,7 @@
       </c>
       <c r="C6" s="384" t="str">
         <f>Данные!C14</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D6" s="404">
         <v>20</v>
@@ -6437,7 +6440,7 @@
       </c>
       <c r="C7" s="384" t="str">
         <f>Данные!C15</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D7" s="410">
         <v>20</v>
@@ -6468,7 +6471,7 @@
       </c>
       <c r="C8" s="384" t="str">
         <f>Данные!C16</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D8" s="410">
         <v>24</v>
@@ -6499,7 +6502,7 @@
       </c>
       <c r="C9" s="384" t="str">
         <f>Данные!C17</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D9" s="410">
         <v>24</v>
@@ -6530,7 +6533,7 @@
       </c>
       <c r="C10" s="384" t="str">
         <f>Данные!C18</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D10" s="410">
         <v>60</v>
@@ -6561,7 +6564,7 @@
       </c>
       <c r="C11" s="384" t="str">
         <f>Данные!C19</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D11" s="410">
         <v>60</v>
@@ -6592,7 +6595,7 @@
       </c>
       <c r="C12" s="384" t="str">
         <f>Данные!C20</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D12" s="410">
         <v>40</v>
@@ -6624,7 +6627,7 @@
       </c>
       <c r="C13" s="384" t="str">
         <f>Данные!C21</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D13" s="410">
         <v>18</v>
@@ -6689,7 +6692,7 @@
       </c>
       <c r="C15" s="384" t="str">
         <f>Данные!C23</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D15" s="410">
         <v>16</v>
@@ -6720,7 +6723,7 @@
       </c>
       <c r="C16" s="384" t="str">
         <f>Данные!C24</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D16" s="410">
         <v>8</v>
@@ -6751,7 +6754,7 @@
       </c>
       <c r="C17" s="480" t="str">
         <f>Данные!C25</f>
-        <v>XXI-В-28-2б-500</v>
+        <v>XXI-В-28-2б-500-1</v>
       </c>
       <c r="D17" s="482">
         <v>18</v>
@@ -6833,35 +6836,35 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="428">
-        <f>D6*700000</f>
-        <v>14000000</v>
+        <f>E6*700000</f>
+        <v>13300000</v>
       </c>
       <c r="B21" s="429">
-        <v>43759</v>
+        <v>43783</v>
       </c>
       <c r="C21" s="430">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="429">
-        <v>43769</v>
+        <v>43786</v>
+      </c>
+      <c r="D21" s="491">
+        <v>43789</v>
       </c>
       <c r="E21" s="431">
-        <v>948096</v>
+        <v>401310</v>
       </c>
       <c r="F21" s="431">
-        <v>1031915</v>
+        <v>436666</v>
       </c>
       <c r="G21" s="432">
         <f>F21/A$21</f>
-        <v>7.370821428571428E-2</v>
+        <v>3.2832030075187972E-2</v>
       </c>
       <c r="H21" s="433">
         <f>A21-F21</f>
-        <v>12968085</v>
+        <v>12863334</v>
       </c>
       <c r="I21" s="434">
         <f>1-G21</f>
-        <v>0.92629178571428572</v>
+        <v>0.96716796992481202</v>
       </c>
       <c r="J21" s="435"/>
       <c r="K21" s="413"/>
@@ -6880,11 +6883,11 @@
       </c>
       <c r="H22" s="439">
         <f>H21-F22</f>
-        <v>12968085</v>
+        <v>12863334</v>
       </c>
       <c r="I22" s="440">
         <f>I21-G22</f>
-        <v>0.92629178571428572</v>
+        <v>0.96716796992481202</v>
       </c>
       <c r="J22" s="395"/>
       <c r="K22" s="395"/>
@@ -6978,12 +6981,12 @@
       <c r="A29" s="441"/>
       <c r="B29" s="442"/>
       <c r="C29" s="442"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="387"/>
+      <c r="D29" s="442"/>
+      <c r="E29" s="445"/>
       <c r="F29" s="443"/>
-      <c r="G29" s="450"/>
+      <c r="G29" s="448"/>
       <c r="H29" s="445"/>
-      <c r="I29" s="451"/>
+      <c r="I29" s="446"/>
       <c r="J29" s="435"/>
       <c r="K29" s="435"/>
       <c r="L29" s="395"/>
@@ -6992,137 +6995,132 @@
       <c r="A30" s="441"/>
       <c r="B30" s="442"/>
       <c r="C30" s="442"/>
-      <c r="D30" s="387"/>
-      <c r="E30" s="387"/>
+      <c r="D30" s="442"/>
+      <c r="E30" s="445"/>
       <c r="F30" s="443"/>
       <c r="G30" s="448"/>
       <c r="H30" s="445"/>
-      <c r="I30" s="451"/>
+      <c r="I30" s="446"/>
       <c r="J30" s="435"/>
       <c r="K30" s="435"/>
       <c r="L30" s="395"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="452"/>
-      <c r="B31" s="453"/>
-      <c r="C31" s="453"/>
-      <c r="D31" s="454"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="457"/>
-      <c r="I31" s="458"/>
-      <c r="J31" s="395"/>
-      <c r="K31" s="395"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="441"/>
+      <c r="B31" s="442"/>
+      <c r="C31" s="442"/>
+      <c r="D31" s="442"/>
+      <c r="E31" s="445"/>
+      <c r="F31" s="443"/>
+      <c r="G31" s="448"/>
+      <c r="H31" s="445"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="435"/>
+      <c r="K31" s="435"/>
       <c r="L31" s="395"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="459" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="441"/>
+      <c r="B32" s="442"/>
+      <c r="C32" s="442"/>
+      <c r="D32" s="442"/>
+      <c r="E32" s="445"/>
+      <c r="F32" s="443"/>
+      <c r="G32" s="448"/>
+      <c r="H32" s="445"/>
+      <c r="I32" s="446"/>
+      <c r="J32" s="435"/>
+      <c r="K32" s="435"/>
+      <c r="L32" s="395"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="441"/>
+      <c r="B33" s="442"/>
+      <c r="C33" s="442"/>
+      <c r="D33" s="442"/>
+      <c r="E33" s="445"/>
+      <c r="F33" s="443"/>
+      <c r="G33" s="448"/>
+      <c r="H33" s="445"/>
+      <c r="I33" s="446"/>
+      <c r="J33" s="435"/>
+      <c r="K33" s="435"/>
+      <c r="L33" s="395"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="441"/>
+      <c r="B34" s="442"/>
+      <c r="C34" s="442"/>
+      <c r="D34" s="387"/>
+      <c r="E34" s="387"/>
+      <c r="F34" s="443"/>
+      <c r="G34" s="450"/>
+      <c r="H34" s="445"/>
+      <c r="I34" s="451"/>
+      <c r="J34" s="435"/>
+      <c r="K34" s="435"/>
+      <c r="L34" s="395"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="441"/>
+      <c r="B35" s="442"/>
+      <c r="C35" s="442"/>
+      <c r="D35" s="387"/>
+      <c r="E35" s="387"/>
+      <c r="F35" s="443"/>
+      <c r="G35" s="448"/>
+      <c r="H35" s="445"/>
+      <c r="I35" s="451"/>
+      <c r="J35" s="435"/>
+      <c r="K35" s="435"/>
+      <c r="L35" s="395"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A36" s="452"/>
+      <c r="B36" s="453"/>
+      <c r="C36" s="453"/>
+      <c r="D36" s="454"/>
+      <c r="E36" s="454"/>
+      <c r="F36" s="455"/>
+      <c r="G36" s="456"/>
+      <c r="H36" s="457"/>
+      <c r="I36" s="458"/>
+      <c r="J36" s="395"/>
+      <c r="K36" s="395"/>
+      <c r="L36" s="395"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A37" s="459" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="460"/>
-      <c r="C32" s="460"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="462">
-        <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="463">
-        <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="464">
-        <f>SUM(G21:G31)</f>
-        <v>7.370821428571428E-2</v>
-      </c>
-      <c r="H32" s="465">
-        <f>A21-F32</f>
-        <v>12968085</v>
-      </c>
-      <c r="I32" s="466">
-        <f>1-G32</f>
-        <v>0.92629178571428572</v>
-      </c>
-      <c r="J32" s="467"/>
-      <c r="K32" s="467"/>
-      <c r="L32" s="467"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="395"/>
-      <c r="B35" s="395"/>
-      <c r="C35" s="395"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="395"/>
-      <c r="G35" s="395"/>
-      <c r="H35" s="395"/>
-      <c r="I35" s="395"/>
-      <c r="J35" s="395"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="514" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="514"/>
-      <c r="C36" s="514"/>
-      <c r="D36" s="514"/>
-      <c r="E36" s="395"/>
-      <c r="F36" s="395"/>
-      <c r="G36" s="395"/>
-      <c r="H36" s="395"/>
-      <c r="I36" s="395"/>
-      <c r="J36" s="395"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="515" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="515"/>
-      <c r="C37" s="468" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="468" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="511">
-        <f>A21-F32</f>
-        <v>12968085</v>
-      </c>
-      <c r="B38" s="512"/>
-      <c r="C38" s="469">
-        <f>1-G32</f>
-        <v>0.92629178571428572</v>
-      </c>
-      <c r="D38" s="470">
-        <f>(C38/0.8)*100</f>
-        <v>115.78647321428571</v>
-      </c>
-      <c r="E38" s="471" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
-      <c r="I38" s="471"/>
-      <c r="J38" s="471"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="395"/>
-      <c r="B39" s="395"/>
-      <c r="C39" s="395"/>
-      <c r="D39" s="395"/>
-      <c r="E39" s="395"/>
-      <c r="F39" s="395"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="B37" s="460"/>
+      <c r="C37" s="460"/>
+      <c r="D37" s="461"/>
+      <c r="E37" s="462">
+        <f>SUM(E21:E36)</f>
+        <v>401310</v>
+      </c>
+      <c r="F37" s="463">
+        <f>SUM(F21:F36)</f>
+        <v>436666</v>
+      </c>
+      <c r="G37" s="464">
+        <f>SUM(G21:G36)</f>
+        <v>3.2832030075187972E-2</v>
+      </c>
+      <c r="H37" s="465">
+        <f>A21-F37</f>
+        <v>12863334</v>
+      </c>
+      <c r="I37" s="466">
+        <f>1-G37</f>
+        <v>0.96716796992481202</v>
+      </c>
+      <c r="J37" s="467"/>
+      <c r="K37" s="467"/>
+      <c r="L37" s="467"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="395"/>
       <c r="B40" s="395"/>
       <c r="C40" s="395"/>
@@ -7133,15 +7131,14 @@
       <c r="H40" s="395"/>
       <c r="I40" s="395"/>
       <c r="J40" s="395"/>
-      <c r="K40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.6">
-      <c r="A41" s="395"/>
-      <c r="B41" s="472"/>
-      <c r="C41" s="472"/>
-      <c r="D41" s="395"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A41" s="495" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="495"/>
+      <c r="C41" s="495"/>
+      <c r="D41" s="495"/>
       <c r="E41" s="395"/>
       <c r="F41" s="395"/>
       <c r="G41" s="395"/>
@@ -7149,77 +7146,103 @@
       <c r="I41" s="395"/>
       <c r="J41" s="395"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="473"/>
-      <c r="B42" s="473"/>
-      <c r="C42" s="473"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="473"/>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="474"/>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
-      <c r="D43" s="395"/>
-      <c r="E43" s="395"/>
-      <c r="F43" s="475"/>
-      <c r="G43" s="421"/>
-      <c r="H43" s="475"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="474"/>
-      <c r="B44" s="475"/>
-      <c r="C44" s="475"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="475"/>
-      <c r="F44" s="475"/>
-      <c r="G44" s="421"/>
-      <c r="H44" s="475"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="474"/>
-      <c r="B45" s="475"/>
-      <c r="C45" s="475"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="496" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="496"/>
+      <c r="C42" s="468" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="468" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="395"/>
+      <c r="F42" s="395"/>
+      <c r="G42" s="395"/>
+      <c r="H42" s="395"/>
+      <c r="I42" s="395"/>
+      <c r="J42" s="395"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="492">
+        <f>A21-F37</f>
+        <v>12863334</v>
+      </c>
+      <c r="B43" s="493"/>
+      <c r="C43" s="469">
+        <f>1-G37</f>
+        <v>0.96716796992481202</v>
+      </c>
+      <c r="D43" s="470">
+        <f>(C43/0.8)*100</f>
+        <v>120.89599624060151</v>
+      </c>
+      <c r="E43" s="471" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="471"/>
+      <c r="G43" s="471"/>
+      <c r="H43" s="471"/>
+      <c r="I43" s="471"/>
+      <c r="J43" s="471"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="395"/>
+      <c r="B44" s="395"/>
+      <c r="C44" s="395"/>
+      <c r="D44" s="395"/>
+      <c r="E44" s="395"/>
+      <c r="F44" s="395"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="395"/>
+      <c r="B45" s="395"/>
+      <c r="C45" s="395"/>
       <c r="D45" s="395"/>
       <c r="E45" s="395"/>
-      <c r="F45" s="475"/>
-      <c r="G45" s="421"/>
-      <c r="H45" s="475"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="474"/>
-      <c r="B46" s="475"/>
-      <c r="C46" s="475"/>
-      <c r="D46" s="475"/>
-      <c r="E46" s="475"/>
-      <c r="F46" s="475"/>
-      <c r="G46" s="421"/>
-      <c r="H46" s="475"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="474"/>
-      <c r="B47" s="475"/>
-      <c r="C47" s="475"/>
-      <c r="D47" s="395"/>
-      <c r="E47" s="395"/>
-      <c r="F47" s="475"/>
-      <c r="G47" s="421"/>
-      <c r="H47" s="475"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="F45" s="395"/>
+      <c r="G45" s="395"/>
+      <c r="H45" s="395"/>
+      <c r="I45" s="395"/>
+      <c r="J45" s="395"/>
+      <c r="K45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.6">
+      <c r="A46" s="395"/>
+      <c r="B46" s="472"/>
+      <c r="C46" s="472"/>
+      <c r="D46" s="395"/>
+      <c r="E46" s="395"/>
+      <c r="F46" s="395"/>
+      <c r="G46" s="395"/>
+      <c r="H46" s="395"/>
+      <c r="I46" s="395"/>
+      <c r="J46" s="395"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="473"/>
+      <c r="B47" s="473"/>
+      <c r="C47" s="473"/>
+      <c r="D47" s="473"/>
+      <c r="E47" s="473"/>
+      <c r="F47" s="473"/>
+      <c r="G47" s="473"/>
+      <c r="H47" s="473"/>
+      <c r="I47" s="497"/>
+      <c r="J47" s="498"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="474"/>
       <c r="B48" s="475"/>
-      <c r="C48" s="413"/>
-      <c r="D48" s="476"/>
-      <c r="E48" s="476"/>
-      <c r="F48" s="413"/>
-      <c r="G48" s="413"/>
-      <c r="H48" s="413"/>
+      <c r="C48" s="475"/>
+      <c r="D48" s="395"/>
+      <c r="E48" s="395"/>
+      <c r="F48" s="475"/>
+      <c r="G48" s="421"/>
+      <c r="H48" s="475"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="474"/>
@@ -7235,8 +7258,8 @@
       <c r="A50" s="474"/>
       <c r="B50" s="475"/>
       <c r="C50" s="475"/>
-      <c r="D50" s="475"/>
-      <c r="E50" s="475"/>
+      <c r="D50" s="395"/>
+      <c r="E50" s="395"/>
       <c r="F50" s="475"/>
       <c r="G50" s="421"/>
       <c r="H50" s="475"/>
@@ -7245,94 +7268,144 @@
       <c r="A51" s="474"/>
       <c r="B51" s="475"/>
       <c r="C51" s="475"/>
-      <c r="D51" s="395"/>
-      <c r="E51" s="395"/>
+      <c r="D51" s="475"/>
+      <c r="E51" s="475"/>
       <c r="F51" s="475"/>
       <c r="G51" s="421"/>
       <c r="H51" s="475"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="395"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
-      <c r="E52" s="471"/>
-      <c r="F52" s="395"/>
-      <c r="G52" s="395"/>
-      <c r="H52" s="395"/>
-      <c r="I52" s="395"/>
-      <c r="J52" s="395"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="474"/>
+      <c r="B52" s="475"/>
+      <c r="C52" s="475"/>
+      <c r="D52" s="395"/>
+      <c r="E52" s="395"/>
+      <c r="F52" s="475"/>
+      <c r="G52" s="421"/>
+      <c r="H52" s="475"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="473"/>
-      <c r="B53" s="473"/>
-      <c r="C53" s="473"/>
-      <c r="D53" s="473"/>
-      <c r="E53" s="473"/>
-      <c r="F53" s="473"/>
-      <c r="G53" s="473"/>
-      <c r="H53" s="473"/>
-      <c r="I53" s="516"/>
-      <c r="J53" s="517"/>
+      <c r="A53" s="474"/>
+      <c r="B53" s="475"/>
+      <c r="C53" s="413"/>
+      <c r="D53" s="476"/>
+      <c r="E53" s="476"/>
+      <c r="F53" s="413"/>
+      <c r="G53" s="413"/>
+      <c r="H53" s="413"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="474"/>
-      <c r="B54" s="395"/>
-      <c r="C54" s="395"/>
-      <c r="D54" s="395"/>
-      <c r="E54" s="395"/>
-      <c r="F54" s="421"/>
+      <c r="B54" s="475"/>
+      <c r="C54" s="475"/>
+      <c r="D54" s="475"/>
+      <c r="E54" s="475"/>
+      <c r="F54" s="475"/>
       <c r="G54" s="421"/>
       <c r="H54" s="475"/>
-      <c r="I54" s="520"/>
-      <c r="J54" s="520"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="474"/>
-      <c r="B55" s="395"/>
-      <c r="C55" s="395"/>
-      <c r="D55" s="413"/>
-      <c r="E55" s="413"/>
-      <c r="F55" s="413"/>
-      <c r="G55" s="413"/>
-      <c r="H55" s="413"/>
-      <c r="I55" s="520"/>
-      <c r="J55" s="520"/>
+      <c r="B55" s="475"/>
+      <c r="C55" s="475"/>
+      <c r="D55" s="475"/>
+      <c r="E55" s="475"/>
+      <c r="F55" s="475"/>
+      <c r="G55" s="421"/>
+      <c r="H55" s="475"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="395"/>
-      <c r="B56" s="395"/>
-      <c r="C56" s="395"/>
+      <c r="A56" s="474"/>
+      <c r="B56" s="475"/>
+      <c r="C56" s="475"/>
       <c r="D56" s="395"/>
       <c r="E56" s="395"/>
-      <c r="F56" s="395"/>
-      <c r="G56" s="395"/>
-      <c r="H56" s="395"/>
+      <c r="F56" s="475"/>
+      <c r="G56" s="421"/>
+      <c r="H56" s="475"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.6">
+      <c r="A57" s="395"/>
+      <c r="B57" s="499"/>
+      <c r="C57" s="499"/>
+      <c r="D57" s="500"/>
+      <c r="E57" s="471"/>
+      <c r="F57" s="395"/>
+      <c r="G57" s="395"/>
+      <c r="H57" s="395"/>
+      <c r="I57" s="395"/>
+      <c r="J57" s="395"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="473"/>
+      <c r="B58" s="473"/>
+      <c r="C58" s="473"/>
+      <c r="D58" s="473"/>
+      <c r="E58" s="473"/>
+      <c r="F58" s="473"/>
+      <c r="G58" s="473"/>
+      <c r="H58" s="473"/>
+      <c r="I58" s="497"/>
+      <c r="J58" s="498"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="474"/>
+      <c r="B59" s="395"/>
+      <c r="C59" s="395"/>
+      <c r="D59" s="395"/>
+      <c r="E59" s="395"/>
+      <c r="F59" s="421"/>
+      <c r="G59" s="421"/>
+      <c r="H59" s="475"/>
+      <c r="I59" s="501"/>
+      <c r="J59" s="501"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="474"/>
+      <c r="B60" s="395"/>
+      <c r="C60" s="395"/>
+      <c r="D60" s="413"/>
+      <c r="E60" s="413"/>
+      <c r="F60" s="413"/>
+      <c r="G60" s="413"/>
+      <c r="H60" s="413"/>
+      <c r="I60" s="501"/>
+      <c r="J60" s="501"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="516"/>
-      <c r="C61" s="517"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="516"/>
-      <c r="C68" s="517"/>
+      <c r="A61" s="395"/>
+      <c r="B61" s="395"/>
+      <c r="C61" s="395"/>
+      <c r="D61" s="395"/>
+      <c r="E61" s="395"/>
+      <c r="F61" s="395"/>
+      <c r="G61" s="395"/>
+      <c r="H61" s="395"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="497"/>
+      <c r="C66" s="498"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="497"/>
+      <c r="C73" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -7386,47 +7459,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7437,9 +7510,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7458,22 +7531,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7484,22 +7557,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7510,27 +7583,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7999,47 +8072,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8050,9 +8123,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8071,22 +8144,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8097,22 +8170,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8123,27 +8196,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8472,12 +8545,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="626" t="s">
+      <c r="B18" s="628" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="627"/>
-      <c r="D18" s="627"/>
-      <c r="E18" s="628"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8625,47 +8698,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8676,9 +8749,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8697,22 +8770,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8723,22 +8796,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8749,27 +8822,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9233,47 +9306,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="631">
+      <c r="J2" s="612"/>
+      <c r="K2" s="634">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9284,9 +9357,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9305,22 +9378,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9331,22 +9404,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9357,27 +9430,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9446,7 +9519,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="390" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="289">
         <v>0.1</v>
@@ -9650,6 +9723,10 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9664,10 +9741,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9696,8 +9769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9709,25 +9782,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="524" t="s">
+      <c r="A1" s="505" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="528"/>
-      <c r="C1" s="528"/>
-      <c r="D1" s="528"/>
-      <c r="E1" s="528"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
       <c r="G1" s="373" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="506" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="526"/>
-      <c r="C2" s="526"/>
-      <c r="D2" s="526"/>
-      <c r="E2" s="527"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
       <c r="G2" s="372" t="s">
         <v>77</v>
       </c>
@@ -9738,45 +9811,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="529" t="s">
+      <c r="A4" s="510" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="530"/>
-      <c r="C4" s="530"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="531" t="s">
+      <c r="A5" s="512" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="532"/>
-      <c r="C5" s="532"/>
-      <c r="D5" s="532"/>
-      <c r="E5" s="533"/>
+      <c r="B5" s="513"/>
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="514"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="524" t="s">
+      <c r="A7" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="528"/>
-      <c r="C7" s="528"/>
-      <c r="D7" s="528"/>
-      <c r="E7" s="528"/>
+      <c r="B7" s="509"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="509"/>
+      <c r="E7" s="509"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="534"/>
-      <c r="B8" s="535"/>
-      <c r="C8" s="535"/>
-      <c r="D8" s="535"/>
-      <c r="E8" s="536"/>
+      <c r="A8" s="515"/>
+      <c r="B8" s="516"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="517"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="524" t="s">
+      <c r="A10" s="505" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="524"/>
+      <c r="B10" s="505"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -9787,33 +9860,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="522"/>
-      <c r="B11" s="523"/>
+      <c r="A11" s="503"/>
+      <c r="B11" s="504"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="537" t="s">
+      <c r="F11" s="518" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="538" t="s">
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="538"/>
+      <c r="K11" s="519"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="537" t="s">
+      <c r="F12" s="518" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="537"/>
-      <c r="H12" s="537"/>
-      <c r="I12" s="537"/>
-      <c r="J12" s="538" t="s">
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="538"/>
+      <c r="K12" s="519"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -9825,16 +9898,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="537" t="s">
+      <c r="F13" s="518" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="538" t="s">
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="538"/>
+      <c r="K13" s="519"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -9844,7 +9917,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9855,7 +9928,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9866,7 +9939,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9877,7 +9950,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9888,7 +9961,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9899,7 +9972,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9910,7 +9983,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9921,7 +9994,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9941,7 +10014,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9952,7 +10025,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9963,7 +10036,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="384" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9986,15 +10059,15 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="521" t="s">
+      <c r="A29" s="502" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="521"/>
-      <c r="C29" s="521"/>
+      <c r="B29" s="502"/>
+      <c r="C29" s="502"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="373" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -10024,7 +10097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H26" sqref="H26:J27"/>
     </sheetView>
   </sheetViews>
@@ -10091,47 +10164,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="540" t="s">
+      <c r="A11" s="521" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="540"/>
-      <c r="C11" s="540"/>
-      <c r="D11" s="540"/>
-      <c r="E11" s="540"/>
-      <c r="F11" s="540"/>
-      <c r="G11" s="540"/>
-      <c r="H11" s="540"/>
-      <c r="I11" s="540"/>
-      <c r="J11" s="540"/>
+      <c r="B11" s="521"/>
+      <c r="C11" s="521"/>
+      <c r="D11" s="521"/>
+      <c r="E11" s="521"/>
+      <c r="F11" s="521"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="521"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="539" t="s">
+      <c r="A12" s="520" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="539"/>
-      <c r="C12" s="539"/>
-      <c r="D12" s="539"/>
-      <c r="E12" s="539"/>
-      <c r="F12" s="539"/>
-      <c r="G12" s="539"/>
-      <c r="H12" s="539"/>
-      <c r="I12" s="539"/>
-      <c r="J12" s="539"/>
+      <c r="B12" s="520"/>
+      <c r="C12" s="520"/>
+      <c r="D12" s="520"/>
+      <c r="E12" s="520"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="520"/>
+      <c r="H12" s="520"/>
+      <c r="I12" s="520"/>
+      <c r="J12" s="520"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="541" t="str">
+      <c r="A13" s="522" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="540"/>
-      <c r="C13" s="540"/>
-      <c r="D13" s="540"/>
-      <c r="E13" s="540"/>
-      <c r="F13" s="540"/>
-      <c r="G13" s="540"/>
-      <c r="H13" s="540"/>
-      <c r="I13" s="540"/>
-      <c r="J13" s="540"/>
+      <c r="B13" s="521"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="521"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="521"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="521"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="313" t="s">
@@ -10256,497 +10329,497 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="509" t="s">
+      <c r="A22" s="526" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="509" t="s">
+      <c r="B22" s="526" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="509"/>
-      <c r="D22" s="509"/>
-      <c r="E22" s="509" t="s">
+      <c r="C22" s="526"/>
+      <c r="D22" s="526"/>
+      <c r="E22" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="509"/>
-      <c r="G22" s="510" t="s">
+      <c r="F22" s="526"/>
+      <c r="G22" s="544" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="509" t="s">
+      <c r="H22" s="526" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="509"/>
-      <c r="J22" s="509"/>
+      <c r="I22" s="526"/>
+      <c r="J22" s="526"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="509"/>
-      <c r="B23" s="509"/>
-      <c r="C23" s="509"/>
-      <c r="D23" s="509"/>
-      <c r="E23" s="509"/>
-      <c r="F23" s="509"/>
-      <c r="G23" s="510"/>
-      <c r="H23" s="509"/>
-      <c r="I23" s="509"/>
-      <c r="J23" s="509"/>
+      <c r="A23" s="526"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="526"/>
+      <c r="D23" s="526"/>
+      <c r="E23" s="526"/>
+      <c r="F23" s="526"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="526"/>
+      <c r="I23" s="526"/>
+      <c r="J23" s="526"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="491">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="492" t="s">
+      <c r="B24" s="541" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="493"/>
-      <c r="D24" s="494"/>
-      <c r="E24" s="495" t="str">
+      <c r="C24" s="542"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="529" t="str">
         <f>Данные!C14</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F24" s="496"/>
-      <c r="G24" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F24" s="530"/>
+      <c r="G24" s="533">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="H24" s="636" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="502"/>
-      <c r="J24" s="503"/>
+      <c r="H24" s="535" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="536"/>
+      <c r="J24" s="537"/>
     </row>
     <row r="25" spans="1:10" ht="58.8" customHeight="1">
-      <c r="A25" s="507"/>
-      <c r="B25" s="542" t="str">
+      <c r="A25" s="528"/>
+      <c r="B25" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C25" s="543"/>
-      <c r="D25" s="544"/>
-      <c r="E25" s="508"/>
-      <c r="F25" s="498"/>
-      <c r="G25" s="500"/>
-      <c r="H25" s="504"/>
-      <c r="I25" s="505"/>
-      <c r="J25" s="506"/>
+      <c r="C25" s="524"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="532"/>
+      <c r="G25" s="534"/>
+      <c r="H25" s="538"/>
+      <c r="I25" s="539"/>
+      <c r="J25" s="540"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="491">
+      <c r="A26" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="492" t="s">
+      <c r="B26" s="541" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="493"/>
-      <c r="D26" s="494"/>
-      <c r="E26" s="495" t="str">
+      <c r="C26" s="542"/>
+      <c r="D26" s="543"/>
+      <c r="E26" s="529" t="str">
         <f>Данные!C15</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F26" s="496"/>
-      <c r="G26" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F26" s="530"/>
+      <c r="G26" s="533">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="H26" s="636" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" s="502"/>
-      <c r="J26" s="503"/>
+      <c r="H26" s="535" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="536"/>
+      <c r="J26" s="537"/>
     </row>
     <row r="27" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A27" s="507"/>
-      <c r="B27" s="542" t="str">
+      <c r="A27" s="528"/>
+      <c r="B27" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C27" s="543"/>
-      <c r="D27" s="544"/>
-      <c r="E27" s="508"/>
-      <c r="F27" s="498"/>
-      <c r="G27" s="500"/>
-      <c r="H27" s="504"/>
-      <c r="I27" s="505"/>
-      <c r="J27" s="506"/>
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="531"/>
+      <c r="F27" s="532"/>
+      <c r="G27" s="534"/>
+      <c r="H27" s="538"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="540"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="491">
+      <c r="A28" s="527">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="492" t="s">
+      <c r="B28" s="541" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="493"/>
-      <c r="D28" s="494"/>
-      <c r="E28" s="495" t="str">
+      <c r="C28" s="542"/>
+      <c r="D28" s="543"/>
+      <c r="E28" s="529" t="str">
         <f>Данные!C16</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F28" s="496"/>
-      <c r="G28" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F28" s="530"/>
+      <c r="G28" s="533">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="501"/>
-      <c r="I28" s="502"/>
-      <c r="J28" s="503"/>
+      <c r="H28" s="545"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537"/>
     </row>
     <row r="29" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A29" s="507"/>
-      <c r="B29" s="542" t="str">
+      <c r="A29" s="528"/>
+      <c r="B29" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C29" s="543"/>
-      <c r="D29" s="544"/>
-      <c r="E29" s="508"/>
-      <c r="F29" s="498"/>
-      <c r="G29" s="500"/>
-      <c r="H29" s="504"/>
-      <c r="I29" s="505"/>
-      <c r="J29" s="506"/>
+      <c r="C29" s="524"/>
+      <c r="D29" s="525"/>
+      <c r="E29" s="531"/>
+      <c r="F29" s="532"/>
+      <c r="G29" s="534"/>
+      <c r="H29" s="538"/>
+      <c r="I29" s="539"/>
+      <c r="J29" s="540"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="491">
+      <c r="A30" s="527">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="492" t="s">
+      <c r="B30" s="541" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="493"/>
-      <c r="D30" s="494"/>
-      <c r="E30" s="495" t="str">
+      <c r="C30" s="542"/>
+      <c r="D30" s="543"/>
+      <c r="E30" s="529" t="str">
         <f>Данные!C17</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F30" s="496"/>
-      <c r="G30" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F30" s="530"/>
+      <c r="G30" s="533">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="501"/>
-      <c r="I30" s="502"/>
-      <c r="J30" s="503"/>
+      <c r="H30" s="545"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537"/>
     </row>
     <row r="31" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A31" s="507"/>
-      <c r="B31" s="542" t="str">
+      <c r="A31" s="528"/>
+      <c r="B31" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C31" s="543"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="497"/>
-      <c r="F31" s="498"/>
-      <c r="G31" s="500"/>
-      <c r="H31" s="504"/>
-      <c r="I31" s="505"/>
-      <c r="J31" s="506"/>
+      <c r="C31" s="524"/>
+      <c r="D31" s="525"/>
+      <c r="E31" s="546"/>
+      <c r="F31" s="532"/>
+      <c r="G31" s="534"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="540"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="491">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="492" t="s">
+      <c r="B32" s="541" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="493"/>
-      <c r="D32" s="494"/>
-      <c r="E32" s="495" t="str">
+      <c r="C32" s="542"/>
+      <c r="D32" s="543"/>
+      <c r="E32" s="529" t="str">
         <f>Данные!C18</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F32" s="496"/>
-      <c r="G32" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F32" s="530"/>
+      <c r="G32" s="533">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="501"/>
-      <c r="I32" s="502"/>
-      <c r="J32" s="503"/>
+      <c r="H32" s="545"/>
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
     </row>
     <row r="33" spans="1:10" ht="54.6" customHeight="1">
-      <c r="A33" s="507"/>
-      <c r="B33" s="542" t="str">
+      <c r="A33" s="528"/>
+      <c r="B33" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C33" s="543"/>
-      <c r="D33" s="544"/>
-      <c r="E33" s="497"/>
-      <c r="F33" s="498"/>
-      <c r="G33" s="500"/>
-      <c r="H33" s="504"/>
-      <c r="I33" s="505"/>
-      <c r="J33" s="506"/>
+      <c r="C33" s="524"/>
+      <c r="D33" s="525"/>
+      <c r="E33" s="546"/>
+      <c r="F33" s="532"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="491">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="492" t="s">
+      <c r="B34" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="493"/>
-      <c r="D34" s="494"/>
-      <c r="E34" s="495" t="str">
+      <c r="C34" s="542"/>
+      <c r="D34" s="543"/>
+      <c r="E34" s="529" t="str">
         <f>Данные!C19</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F34" s="496"/>
-      <c r="G34" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F34" s="530"/>
+      <c r="G34" s="533">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="501"/>
-      <c r="I34" s="502"/>
-      <c r="J34" s="503"/>
+      <c r="H34" s="545"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537"/>
     </row>
     <row r="35" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A35" s="507"/>
-      <c r="B35" s="542" t="str">
+      <c r="A35" s="528"/>
+      <c r="B35" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C35" s="543"/>
-      <c r="D35" s="544"/>
-      <c r="E35" s="497"/>
-      <c r="F35" s="498"/>
-      <c r="G35" s="500"/>
-      <c r="H35" s="504"/>
-      <c r="I35" s="505"/>
-      <c r="J35" s="506"/>
+      <c r="C35" s="524"/>
+      <c r="D35" s="525"/>
+      <c r="E35" s="546"/>
+      <c r="F35" s="532"/>
+      <c r="G35" s="534"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="491">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="492" t="s">
+      <c r="B36" s="541" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="493"/>
-      <c r="D36" s="494"/>
-      <c r="E36" s="495" t="str">
+      <c r="C36" s="542"/>
+      <c r="D36" s="543"/>
+      <c r="E36" s="529" t="str">
         <f>Данные!C20</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F36" s="496"/>
-      <c r="G36" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F36" s="530"/>
+      <c r="G36" s="533">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="501"/>
-      <c r="I36" s="502"/>
-      <c r="J36" s="503"/>
+      <c r="H36" s="545"/>
+      <c r="I36" s="536"/>
+      <c r="J36" s="537"/>
     </row>
     <row r="37" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A37" s="507"/>
-      <c r="B37" s="542" t="str">
+      <c r="A37" s="528"/>
+      <c r="B37" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C37" s="543"/>
-      <c r="D37" s="544"/>
-      <c r="E37" s="497"/>
-      <c r="F37" s="498"/>
-      <c r="G37" s="500"/>
-      <c r="H37" s="504"/>
-      <c r="I37" s="505"/>
-      <c r="J37" s="506"/>
+      <c r="C37" s="524"/>
+      <c r="D37" s="525"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="532"/>
+      <c r="G37" s="534"/>
+      <c r="H37" s="538"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="540"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="491">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="492" t="s">
+      <c r="B38" s="541" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="493"/>
-      <c r="D38" s="494"/>
-      <c r="E38" s="495" t="str">
+      <c r="C38" s="542"/>
+      <c r="D38" s="543"/>
+      <c r="E38" s="529" t="str">
         <f>Данные!C21</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F38" s="496"/>
-      <c r="G38" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F38" s="530"/>
+      <c r="G38" s="533">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="501"/>
-      <c r="I38" s="502"/>
-      <c r="J38" s="503"/>
+      <c r="H38" s="545"/>
+      <c r="I38" s="536"/>
+      <c r="J38" s="537"/>
     </row>
     <row r="39" spans="1:10" ht="69.599999999999994" customHeight="1">
-      <c r="A39" s="507"/>
-      <c r="B39" s="542" t="str">
+      <c r="A39" s="528"/>
+      <c r="B39" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C39" s="543"/>
-      <c r="D39" s="544"/>
-      <c r="E39" s="497"/>
-      <c r="F39" s="498"/>
-      <c r="G39" s="500"/>
-      <c r="H39" s="504"/>
-      <c r="I39" s="505"/>
-      <c r="J39" s="506"/>
+      <c r="C39" s="524"/>
+      <c r="D39" s="525"/>
+      <c r="E39" s="546"/>
+      <c r="F39" s="532"/>
+      <c r="G39" s="534"/>
+      <c r="H39" s="538"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="540"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="491">
+      <c r="A40" s="527">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="492" t="s">
+      <c r="B40" s="541" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="493"/>
-      <c r="D40" s="494"/>
-      <c r="E40" s="495" t="str">
+      <c r="C40" s="542"/>
+      <c r="D40" s="543"/>
+      <c r="E40" s="529" t="str">
         <f>Данные!C23</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F40" s="496"/>
-      <c r="G40" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F40" s="530"/>
+      <c r="G40" s="533">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="H40" s="501"/>
-      <c r="I40" s="502"/>
-      <c r="J40" s="503"/>
+      <c r="H40" s="545"/>
+      <c r="I40" s="536"/>
+      <c r="J40" s="537"/>
     </row>
     <row r="41" spans="1:10" ht="54" customHeight="1">
-      <c r="A41" s="507"/>
-      <c r="B41" s="542" t="str">
+      <c r="A41" s="528"/>
+      <c r="B41" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C41" s="543"/>
-      <c r="D41" s="544"/>
-      <c r="E41" s="497"/>
-      <c r="F41" s="498"/>
-      <c r="G41" s="500"/>
-      <c r="H41" s="504"/>
-      <c r="I41" s="505"/>
-      <c r="J41" s="506"/>
+      <c r="C41" s="524"/>
+      <c r="D41" s="525"/>
+      <c r="E41" s="546"/>
+      <c r="F41" s="532"/>
+      <c r="G41" s="534"/>
+      <c r="H41" s="538"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="491">
+      <c r="A42" s="527">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="492" t="s">
+      <c r="B42" s="541" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="493"/>
-      <c r="D42" s="494"/>
-      <c r="E42" s="495" t="str">
+      <c r="C42" s="542"/>
+      <c r="D42" s="543"/>
+      <c r="E42" s="529" t="str">
         <f>Данные!C25</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F42" s="530"/>
+      <c r="G42" s="533">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="501"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="503"/>
+      <c r="H42" s="545"/>
+      <c r="I42" s="536"/>
+      <c r="J42" s="537"/>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1">
-      <c r="A43" s="507"/>
-      <c r="B43" s="542" t="str">
+      <c r="A43" s="528"/>
+      <c r="B43" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C43" s="543"/>
-      <c r="D43" s="544"/>
-      <c r="E43" s="497"/>
-      <c r="F43" s="498"/>
-      <c r="G43" s="500"/>
-      <c r="H43" s="504"/>
-      <c r="I43" s="505"/>
-      <c r="J43" s="506"/>
+      <c r="C43" s="524"/>
+      <c r="D43" s="525"/>
+      <c r="E43" s="546"/>
+      <c r="F43" s="532"/>
+      <c r="G43" s="534"/>
+      <c r="H43" s="538"/>
+      <c r="I43" s="539"/>
+      <c r="J43" s="540"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="491">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="492" t="s">
+      <c r="B44" s="541" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="493"/>
-      <c r="D44" s="494"/>
-      <c r="E44" s="495">
+      <c r="C44" s="542"/>
+      <c r="D44" s="543"/>
+      <c r="E44" s="529">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="496"/>
-      <c r="G44" s="499">
+      <c r="F44" s="530"/>
+      <c r="G44" s="533">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="501"/>
-      <c r="I44" s="502"/>
-      <c r="J44" s="503"/>
+      <c r="H44" s="545"/>
+      <c r="I44" s="536"/>
+      <c r="J44" s="537"/>
     </row>
     <row r="45" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A45" s="507"/>
-      <c r="B45" s="542" t="str">
+      <c r="A45" s="528"/>
+      <c r="B45" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C45" s="543"/>
-      <c r="D45" s="544"/>
-      <c r="E45" s="497"/>
-      <c r="F45" s="498"/>
-      <c r="G45" s="500"/>
-      <c r="H45" s="504"/>
-      <c r="I45" s="505"/>
-      <c r="J45" s="506"/>
+      <c r="C45" s="524"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="546"/>
+      <c r="F45" s="532"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="538"/>
+      <c r="I45" s="539"/>
+      <c r="J45" s="540"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="491">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="492" t="s">
+      <c r="B46" s="541" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="493"/>
-      <c r="D46" s="494"/>
-      <c r="E46" s="495" t="str">
+      <c r="C46" s="542"/>
+      <c r="D46" s="543"/>
+      <c r="E46" s="529" t="str">
         <f>Данные!C24</f>
-        <v>XXI-В-28-2б-500</v>
-      </c>
-      <c r="F46" s="496"/>
-      <c r="G46" s="499">
+        <v>XXI-В-28-2б-500-1</v>
+      </c>
+      <c r="F46" s="530"/>
+      <c r="G46" s="533">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="501"/>
-      <c r="I46" s="502"/>
-      <c r="J46" s="503"/>
+      <c r="H46" s="545"/>
+      <c r="I46" s="536"/>
+      <c r="J46" s="537"/>
     </row>
     <row r="47" spans="1:10" ht="54" customHeight="1">
-      <c r="A47" s="507"/>
-      <c r="B47" s="542" t="str">
+      <c r="A47" s="528"/>
+      <c r="B47" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C47" s="543"/>
-      <c r="D47" s="544"/>
-      <c r="E47" s="497"/>
-      <c r="F47" s="498"/>
-      <c r="G47" s="500"/>
-      <c r="H47" s="504"/>
-      <c r="I47" s="505"/>
-      <c r="J47" s="506"/>
+      <c r="C47" s="524"/>
+      <c r="D47" s="525"/>
+      <c r="E47" s="546"/>
+      <c r="F47" s="532"/>
+      <c r="G47" s="534"/>
+      <c r="H47" s="538"/>
+      <c r="I47" s="539"/>
+      <c r="J47" s="540"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -11012,47 +11085,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11063,9 +11136,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11084,22 +11157,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="549"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="551"/>
-      <c r="K5" s="532"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11110,22 +11183,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="552"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="550"/>
-      <c r="J6" s="551"/>
-      <c r="K6" s="532"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11136,27 +11209,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="534">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="522">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11489,7 +11562,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="106">
         <v>0.05</v>
@@ -11552,10 +11625,10 @@
     <row r="20" spans="1:19" ht="26.4">
       <c r="A20" s="78"/>
       <c r="B20" s="490" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="98"/>
@@ -11563,7 +11636,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="305" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="107"/>
       <c r="I20" s="106"/>
@@ -11581,10 +11654,10 @@
     <row r="21" spans="1:19" ht="26.4">
       <c r="A21" s="78"/>
       <c r="B21" s="490" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="106"/>
       <c r="E21" s="98"/>
@@ -11592,7 +11665,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="305" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="107"/>
       <c r="I21" s="106"/>
@@ -11610,7 +11683,7 @@
     <row r="22" spans="1:19" ht="39.6">
       <c r="A22" s="78"/>
       <c r="B22" s="490" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="325">
         <v>0.25</v>
@@ -11643,10 +11716,10 @@
     <row r="23" spans="1:19" ht="39.6">
       <c r="A23" s="78"/>
       <c r="B23" s="490" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="325" t="s">
         <v>144</v>
-      </c>
-      <c r="C23" s="325" t="s">
-        <v>145</v>
       </c>
       <c r="D23" s="106">
         <v>0.02</v>
@@ -11675,12 +11748,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4">
       <c r="A24" s="78"/>
-      <c r="B24" s="560" t="s">
+      <c r="B24" s="562" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="561"/>
-      <c r="D24" s="561"/>
-      <c r="E24" s="562"/>
+      <c r="C24" s="563"/>
+      <c r="D24" s="563"/>
+      <c r="E24" s="564"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11702,12 +11775,12 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1">
       <c r="A25" s="78"/>
-      <c r="B25" s="545" t="s">
+      <c r="B25" s="547" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="546"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="547"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="548"/>
+      <c r="E25" s="549"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11836,50 +11909,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="594">
+      <c r="B2" s="596">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11890,9 +11963,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11911,22 +11984,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11937,22 +12010,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11963,27 +12036,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12052,7 +12125,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -12180,13 +12253,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="560" t="s">
+      <c r="B14" s="562" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="561"/>
-      <c r="D14" s="561"/>
-      <c r="E14" s="561"/>
-      <c r="F14" s="593"/>
+      <c r="C14" s="563"/>
+      <c r="D14" s="563"/>
+      <c r="E14" s="563"/>
+      <c r="F14" s="595"/>
       <c r="G14" s="56" t="s">
         <v>75</v>
       </c>
@@ -12205,12 +12278,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="545" t="s">
+      <c r="B15" s="547" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="546"/>
-      <c r="D15" s="546"/>
-      <c r="E15" s="547"/>
+      <c r="C15" s="548"/>
+      <c r="D15" s="548"/>
+      <c r="E15" s="549"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12354,47 +12427,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12405,9 +12478,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12426,22 +12499,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="549"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="551"/>
-      <c r="K5" s="532"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12452,22 +12525,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="552"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="550"/>
-      <c r="J6" s="551"/>
-      <c r="K6" s="532"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12478,27 +12551,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="534">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="522">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12858,7 +12931,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="106">
         <v>0.05</v>
@@ -12981,9 +13054,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12999,6 +13069,9 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13066,47 +13139,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="617"/>
-      <c r="Q2" s="617"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13117,9 +13190,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13138,22 +13211,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="549"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="551"/>
-      <c r="K5" s="532"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13164,22 +13237,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="552"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="550"/>
-      <c r="J6" s="551"/>
-      <c r="K6" s="532"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13190,27 +13263,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="534">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="522">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13279,7 +13352,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="389" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -13584,60 +13657,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="614"/>
-      <c r="M2" s="618"/>
-      <c r="N2" s="619"/>
-      <c r="O2" s="619"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
-      <c r="R2" s="620"/>
+      <c r="L2" s="616"/>
+      <c r="M2" s="620"/>
+      <c r="N2" s="621"/>
+      <c r="O2" s="621"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
+      <c r="R2" s="622"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
-      <c r="M3" s="621"/>
-      <c r="N3" s="622"/>
-      <c r="O3" s="622"/>
-      <c r="P3" s="622"/>
-      <c r="Q3" s="622"/>
-      <c r="R3" s="623"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
+      <c r="M3" s="623"/>
+      <c r="N3" s="624"/>
+      <c r="O3" s="624"/>
+      <c r="P3" s="624"/>
+      <c r="Q3" s="624"/>
+      <c r="R3" s="625"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13646,95 +13719,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="621"/>
-      <c r="N4" s="622"/>
-      <c r="O4" s="622"/>
-      <c r="P4" s="622"/>
-      <c r="Q4" s="622"/>
-      <c r="R4" s="623"/>
+      <c r="M4" s="623"/>
+      <c r="N4" s="624"/>
+      <c r="O4" s="624"/>
+      <c r="P4" s="624"/>
+      <c r="Q4" s="624"/>
+      <c r="R4" s="625"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
-      <c r="M5" s="621"/>
-      <c r="N5" s="622"/>
-      <c r="O5" s="622"/>
-      <c r="P5" s="622"/>
-      <c r="Q5" s="622"/>
-      <c r="R5" s="623"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
+      <c r="M5" s="623"/>
+      <c r="N5" s="624"/>
+      <c r="O5" s="624"/>
+      <c r="P5" s="624"/>
+      <c r="Q5" s="624"/>
+      <c r="R5" s="625"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
-      <c r="M6" s="621"/>
-      <c r="N6" s="622"/>
-      <c r="O6" s="622"/>
-      <c r="P6" s="622"/>
-      <c r="Q6" s="622"/>
-      <c r="R6" s="623"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
+      <c r="M6" s="623"/>
+      <c r="N6" s="624"/>
+      <c r="O6" s="624"/>
+      <c r="P6" s="624"/>
+      <c r="Q6" s="624"/>
+      <c r="R6" s="625"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
-      <c r="M7" s="621"/>
-      <c r="N7" s="622"/>
-      <c r="O7" s="622"/>
-      <c r="P7" s="622"/>
-      <c r="Q7" s="622"/>
-      <c r="R7" s="623"/>
+      <c r="L7" s="504"/>
+      <c r="M7" s="623"/>
+      <c r="N7" s="624"/>
+      <c r="O7" s="624"/>
+      <c r="P7" s="624"/>
+      <c r="Q7" s="624"/>
+      <c r="R7" s="625"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
@@ -14124,7 +14197,7 @@
     <row r="20" spans="1:19" ht="24.15" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="98">
         <v>27.95</v>
@@ -14156,12 +14229,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="545" t="s">
+      <c r="B21" s="547" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="546"/>
-      <c r="D21" s="546"/>
-      <c r="E21" s="547"/>
+      <c r="C21" s="548"/>
+      <c r="D21" s="548"/>
+      <c r="E21" s="549"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14290,47 +14363,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14341,9 +14414,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14362,22 +14435,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="531" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="532"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="532"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="533"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14388,22 +14461,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="548" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="525" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="553"/>
-      <c r="F6" s="553"/>
-      <c r="G6" s="553"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="590"/>
-      <c r="L6" s="533"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14414,27 +14487,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="591"/>
-      <c r="D7" s="534">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="591"/>
-      <c r="K7" s="522">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="523"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14697,12 +14770,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="545" t="s">
+      <c r="B16" s="547" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="546"/>
-      <c r="D16" s="546"/>
-      <c r="E16" s="547"/>
+      <c r="C16" s="548"/>
+      <c r="D16" s="548"/>
+      <c r="E16" s="549"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
@@ -3627,6 +3627,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3671,11 +3677,77 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3686,77 +3758,77 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3808,76 +3880,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3901,75 +3970,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3996,6 +3996,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4006,25 +4009,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6287,7 +6287,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6849,22 +6849,22 @@
         <v>43789</v>
       </c>
       <c r="E21" s="431">
-        <v>401310</v>
+        <v>491400</v>
       </c>
       <c r="F21" s="431">
-        <v>436666</v>
+        <v>577433</v>
       </c>
       <c r="G21" s="432">
         <f>F21/A$21</f>
-        <v>3.2832030075187972E-2</v>
+        <v>4.3416015037593986E-2</v>
       </c>
       <c r="H21" s="433">
         <f>A21-F21</f>
-        <v>12863334</v>
+        <v>12722567</v>
       </c>
       <c r="I21" s="434">
         <f>1-G21</f>
-        <v>0.96716796992481202</v>
+        <v>0.95658398496240604</v>
       </c>
       <c r="J21" s="435"/>
       <c r="K21" s="413"/>
@@ -6883,11 +6883,11 @@
       </c>
       <c r="H22" s="439">
         <f>H21-F22</f>
-        <v>12863334</v>
+        <v>12722567</v>
       </c>
       <c r="I22" s="440">
         <f>I21-G22</f>
-        <v>0.96716796992481202</v>
+        <v>0.95658398496240604</v>
       </c>
       <c r="J22" s="395"/>
       <c r="K22" s="395"/>
@@ -7098,23 +7098,23 @@
       <c r="D37" s="461"/>
       <c r="E37" s="462">
         <f>SUM(E21:E36)</f>
-        <v>401310</v>
+        <v>491400</v>
       </c>
       <c r="F37" s="463">
         <f>SUM(F21:F36)</f>
-        <v>436666</v>
+        <v>577433</v>
       </c>
       <c r="G37" s="464">
         <f>SUM(G21:G36)</f>
-        <v>3.2832030075187972E-2</v>
+        <v>4.3416015037593986E-2</v>
       </c>
       <c r="H37" s="465">
         <f>A21-F37</f>
-        <v>12863334</v>
+        <v>12722567</v>
       </c>
       <c r="I37" s="466">
         <f>1-G37</f>
-        <v>0.96716796992481202</v>
+        <v>0.95658398496240604</v>
       </c>
       <c r="J37" s="467"/>
       <c r="K37" s="467"/>
@@ -7167,16 +7167,16 @@
     <row r="43" spans="1:12">
       <c r="A43" s="492">
         <f>A21-F37</f>
-        <v>12863334</v>
+        <v>12722567</v>
       </c>
       <c r="B43" s="493"/>
       <c r="C43" s="469">
         <f>1-G37</f>
-        <v>0.96716796992481202</v>
+        <v>0.95658398496240604</v>
       </c>
       <c r="D43" s="470">
         <f>(C43/0.8)*100</f>
-        <v>120.89599624060151</v>
+        <v>119.57299812030075</v>
       </c>
       <c r="E43" s="471" t="s">
         <v>133</v>
@@ -7459,24 +7459,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -7487,19 +7487,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7510,9 +7510,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7531,22 +7531,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7557,22 +7557,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7583,27 +7583,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7989,6 +7989,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7996,17 +8007,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8072,47 +8072,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8123,9 +8123,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8144,22 +8144,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8170,22 +8170,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8196,27 +8196,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8545,12 +8545,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="628" t="s">
+      <c r="B18" s="629" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="629"/>
-      <c r="D18" s="629"/>
-      <c r="E18" s="630"/>
+      <c r="C18" s="630"/>
+      <c r="D18" s="630"/>
+      <c r="E18" s="631"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8594,14 +8594,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8613,6 +8605,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8698,24 +8698,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -8726,19 +8726,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8749,9 +8749,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8770,22 +8770,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8796,22 +8796,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8822,27 +8822,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9223,6 +9223,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9230,17 +9241,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9306,47 +9306,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="634">
+      <c r="J2" s="605"/>
+      <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="L2" s="635"/>
+      <c r="L2" s="634"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="636"/>
-      <c r="L3" s="637"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="635"/>
+      <c r="L3" s="636"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9357,9 +9357,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9378,22 +9378,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9404,22 +9404,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9430,27 +9430,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9723,11 +9723,6 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9741,6 +9736,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9782,25 +9782,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="507" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
+      <c r="B1" s="511"/>
+      <c r="C1" s="511"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
       <c r="G1" s="373" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="508" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="507"/>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="508"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="510"/>
       <c r="G2" s="372" t="s">
         <v>77</v>
       </c>
@@ -9811,45 +9811,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="512" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="514" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="513"/>
-      <c r="C5" s="513"/>
-      <c r="D5" s="513"/>
-      <c r="E5" s="514"/>
+      <c r="B5" s="515"/>
+      <c r="C5" s="515"/>
+      <c r="D5" s="515"/>
+      <c r="E5" s="516"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="505" t="s">
+      <c r="A7" s="507" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="509"/>
-      <c r="C7" s="509"/>
-      <c r="D7" s="509"/>
-      <c r="E7" s="509"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="511"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="511"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="515"/>
-      <c r="B8" s="516"/>
-      <c r="C8" s="516"/>
-      <c r="D8" s="516"/>
-      <c r="E8" s="517"/>
+      <c r="A8" s="517"/>
+      <c r="B8" s="518"/>
+      <c r="C8" s="518"/>
+      <c r="D8" s="518"/>
+      <c r="E8" s="519"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="505" t="s">
+      <c r="A10" s="507" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="505"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -9860,33 +9860,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="503"/>
-      <c r="B11" s="504"/>
+      <c r="A11" s="505"/>
+      <c r="B11" s="506"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="518" t="s">
+      <c r="F11" s="502" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519" t="s">
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="503" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="519"/>
+      <c r="K11" s="503"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="518" t="s">
+      <c r="F12" s="502" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="518"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="519" t="s">
+      <c r="G12" s="502"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="502"/>
+      <c r="J12" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="519"/>
+      <c r="K12" s="503"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -9898,16 +9898,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="518" t="s">
+      <c r="F13" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="518"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="519" t="s">
+      <c r="G13" s="502"/>
+      <c r="H13" s="502"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="519"/>
+      <c r="K13" s="503"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -10059,11 +10059,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="502" t="s">
+      <c r="A29" s="504" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="502"/>
-      <c r="C29" s="502"/>
+      <c r="B29" s="504"/>
+      <c r="C29" s="504"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="373" t="s">
@@ -10072,12 +10072,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -10087,6 +10081,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10164,47 +10164,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="545" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="545"/>
+      <c r="C11" s="545"/>
+      <c r="D11" s="545"/>
+      <c r="E11" s="545"/>
+      <c r="F11" s="545"/>
+      <c r="G11" s="545"/>
+      <c r="H11" s="545"/>
+      <c r="I11" s="545"/>
+      <c r="J11" s="545"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="544" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="544"/>
+      <c r="C12" s="544"/>
+      <c r="D12" s="544"/>
+      <c r="E12" s="544"/>
+      <c r="F12" s="544"/>
+      <c r="G12" s="544"/>
+      <c r="H12" s="544"/>
+      <c r="I12" s="544"/>
+      <c r="J12" s="544"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="546" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
+      <c r="B13" s="545"/>
+      <c r="C13" s="545"/>
+      <c r="D13" s="545"/>
+      <c r="E13" s="545"/>
+      <c r="F13" s="545"/>
+      <c r="G13" s="545"/>
+      <c r="H13" s="545"/>
+      <c r="I13" s="545"/>
+      <c r="J13" s="545"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="313" t="s">
@@ -10329,497 +10329,497 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="542" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="542" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="542"/>
+      <c r="D22" s="542"/>
+      <c r="E22" s="542" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="542"/>
+      <c r="G22" s="543" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="542" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="542"/>
+      <c r="J22" s="542"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="542"/>
+      <c r="B23" s="542"/>
+      <c r="C23" s="542"/>
+      <c r="D23" s="542"/>
+      <c r="E23" s="542"/>
+      <c r="F23" s="542"/>
+      <c r="G23" s="543"/>
+      <c r="H23" s="542"/>
+      <c r="I23" s="542"/>
+      <c r="J23" s="542"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="527">
+      <c r="A24" s="520">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="522" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="523"/>
+      <c r="D24" s="524"/>
+      <c r="E24" s="525" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="526"/>
+      <c r="G24" s="529">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="H24" s="535" t="s">
+      <c r="H24" s="540" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="I24" s="532"/>
+      <c r="J24" s="533"/>
     </row>
     <row r="25" spans="1:10" ht="58.8" customHeight="1">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="A25" s="521"/>
+      <c r="B25" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="538"/>
+      <c r="D25" s="539"/>
+      <c r="E25" s="541"/>
+      <c r="F25" s="528"/>
+      <c r="G25" s="530"/>
+      <c r="H25" s="534"/>
+      <c r="I25" s="535"/>
+      <c r="J25" s="536"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="527">
+      <c r="A26" s="520">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="541" t="s">
+      <c r="B26" s="522" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="542"/>
-      <c r="D26" s="543"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="523"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="525" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="526"/>
+      <c r="G26" s="529">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="H26" s="535" t="s">
+      <c r="H26" s="540" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="I26" s="532"/>
+      <c r="J26" s="533"/>
     </row>
     <row r="27" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="A27" s="521"/>
+      <c r="B27" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="538"/>
+      <c r="D27" s="539"/>
+      <c r="E27" s="541"/>
+      <c r="F27" s="528"/>
+      <c r="G27" s="530"/>
+      <c r="H27" s="534"/>
+      <c r="I27" s="535"/>
+      <c r="J27" s="536"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="527">
+      <c r="A28" s="520">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="541" t="s">
+      <c r="B28" s="522" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="542"/>
-      <c r="D28" s="543"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="523"/>
+      <c r="D28" s="524"/>
+      <c r="E28" s="525" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="526"/>
+      <c r="G28" s="529">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="545"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="531"/>
+      <c r="I28" s="532"/>
+      <c r="J28" s="533"/>
     </row>
     <row r="29" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+      <c r="A29" s="521"/>
+      <c r="B29" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="538"/>
+      <c r="D29" s="539"/>
+      <c r="E29" s="541"/>
+      <c r="F29" s="528"/>
+      <c r="G29" s="530"/>
+      <c r="H29" s="534"/>
+      <c r="I29" s="535"/>
+      <c r="J29" s="536"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="527">
+      <c r="A30" s="520">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="541" t="s">
+      <c r="B30" s="522" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="542"/>
-      <c r="D30" s="543"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="523"/>
+      <c r="D30" s="524"/>
+      <c r="E30" s="525" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="526"/>
+      <c r="G30" s="529">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="545"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="531"/>
+      <c r="I30" s="532"/>
+      <c r="J30" s="533"/>
     </row>
     <row r="31" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="A31" s="521"/>
+      <c r="B31" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="546"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="538"/>
+      <c r="D31" s="539"/>
+      <c r="E31" s="527"/>
+      <c r="F31" s="528"/>
+      <c r="G31" s="530"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="535"/>
+      <c r="J31" s="536"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="527">
+      <c r="A32" s="520">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="541" t="s">
+      <c r="B32" s="522" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="542"/>
-      <c r="D32" s="543"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="523"/>
+      <c r="D32" s="524"/>
+      <c r="E32" s="525" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="526"/>
+      <c r="G32" s="529">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="545"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="531"/>
+      <c r="I32" s="532"/>
+      <c r="J32" s="533"/>
     </row>
     <row r="33" spans="1:10" ht="54.6" customHeight="1">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+      <c r="A33" s="521"/>
+      <c r="B33" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="546"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="538"/>
+      <c r="D33" s="539"/>
+      <c r="E33" s="527"/>
+      <c r="F33" s="528"/>
+      <c r="G33" s="530"/>
+      <c r="H33" s="534"/>
+      <c r="I33" s="535"/>
+      <c r="J33" s="536"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="527">
+      <c r="A34" s="520">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="541" t="s">
+      <c r="B34" s="522" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="542"/>
-      <c r="D34" s="543"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="523"/>
+      <c r="D34" s="524"/>
+      <c r="E34" s="525" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="526"/>
+      <c r="G34" s="529">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="545"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="531"/>
+      <c r="I34" s="532"/>
+      <c r="J34" s="533"/>
     </row>
     <row r="35" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+      <c r="A35" s="521"/>
+      <c r="B35" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="546"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="538"/>
+      <c r="D35" s="539"/>
+      <c r="E35" s="527"/>
+      <c r="F35" s="528"/>
+      <c r="G35" s="530"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="535"/>
+      <c r="J35" s="536"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="527">
+      <c r="A36" s="520">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="541" t="s">
+      <c r="B36" s="522" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="542"/>
-      <c r="D36" s="543"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="523"/>
+      <c r="D36" s="524"/>
+      <c r="E36" s="525" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="526"/>
+      <c r="G36" s="529">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="545"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="531"/>
+      <c r="I36" s="532"/>
+      <c r="J36" s="533"/>
     </row>
     <row r="37" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A37" s="528"/>
-      <c r="B37" s="523" t="str">
+      <c r="A37" s="521"/>
+      <c r="B37" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="546"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="538"/>
+      <c r="D37" s="539"/>
+      <c r="E37" s="527"/>
+      <c r="F37" s="528"/>
+      <c r="G37" s="530"/>
+      <c r="H37" s="534"/>
+      <c r="I37" s="535"/>
+      <c r="J37" s="536"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="527">
+      <c r="A38" s="520">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="541" t="s">
+      <c r="B38" s="522" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="542"/>
-      <c r="D38" s="543"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="523"/>
+      <c r="D38" s="524"/>
+      <c r="E38" s="525" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="526"/>
+      <c r="G38" s="529">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="545"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="531"/>
+      <c r="I38" s="532"/>
+      <c r="J38" s="533"/>
     </row>
     <row r="39" spans="1:10" ht="69.599999999999994" customHeight="1">
-      <c r="A39" s="528"/>
-      <c r="B39" s="523" t="str">
+      <c r="A39" s="521"/>
+      <c r="B39" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="546"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="538"/>
+      <c r="D39" s="539"/>
+      <c r="E39" s="527"/>
+      <c r="F39" s="528"/>
+      <c r="G39" s="530"/>
+      <c r="H39" s="534"/>
+      <c r="I39" s="535"/>
+      <c r="J39" s="536"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="527">
+      <c r="A40" s="520">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="541" t="s">
+      <c r="B40" s="522" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="542"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="523"/>
+      <c r="D40" s="524"/>
+      <c r="E40" s="525" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="526"/>
+      <c r="G40" s="529">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="H40" s="545"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="531"/>
+      <c r="I40" s="532"/>
+      <c r="J40" s="533"/>
     </row>
     <row r="41" spans="1:10" ht="54" customHeight="1">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="A41" s="521"/>
+      <c r="B41" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="546"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="538"/>
+      <c r="D41" s="539"/>
+      <c r="E41" s="527"/>
+      <c r="F41" s="528"/>
+      <c r="G41" s="530"/>
+      <c r="H41" s="534"/>
+      <c r="I41" s="535"/>
+      <c r="J41" s="536"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="527">
+      <c r="A42" s="520">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="541" t="s">
+      <c r="B42" s="522" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="542"/>
-      <c r="D42" s="543"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="523"/>
+      <c r="D42" s="524"/>
+      <c r="E42" s="525" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="526"/>
+      <c r="G42" s="529">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="545"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="531"/>
+      <c r="I42" s="532"/>
+      <c r="J42" s="533"/>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+      <c r="A43" s="521"/>
+      <c r="B43" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="546"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="538"/>
+      <c r="D43" s="539"/>
+      <c r="E43" s="527"/>
+      <c r="F43" s="528"/>
+      <c r="G43" s="530"/>
+      <c r="H43" s="534"/>
+      <c r="I43" s="535"/>
+      <c r="J43" s="536"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="527">
+      <c r="A44" s="520">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="541" t="s">
+      <c r="B44" s="522" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="542"/>
-      <c r="D44" s="543"/>
-      <c r="E44" s="529">
+      <c r="C44" s="523"/>
+      <c r="D44" s="524"/>
+      <c r="E44" s="525">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="526"/>
+      <c r="G44" s="529">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="545"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="531"/>
+      <c r="I44" s="532"/>
+      <c r="J44" s="533"/>
     </row>
     <row r="45" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+      <c r="A45" s="521"/>
+      <c r="B45" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="546"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="538"/>
+      <c r="D45" s="539"/>
+      <c r="E45" s="527"/>
+      <c r="F45" s="528"/>
+      <c r="G45" s="530"/>
+      <c r="H45" s="534"/>
+      <c r="I45" s="535"/>
+      <c r="J45" s="536"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="527">
+      <c r="A46" s="520">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="541" t="s">
+      <c r="B46" s="522" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="542"/>
-      <c r="D46" s="543"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="523"/>
+      <c r="D46" s="524"/>
+      <c r="E46" s="525" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="526"/>
+      <c r="G46" s="529">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="545"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="531"/>
+      <c r="I46" s="532"/>
+      <c r="J46" s="533"/>
     </row>
     <row r="47" spans="1:10" ht="54" customHeight="1">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="A47" s="521"/>
+      <c r="B47" s="537" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="546"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="538"/>
+      <c r="D47" s="539"/>
+      <c r="E47" s="527"/>
+      <c r="F47" s="528"/>
+      <c r="G47" s="530"/>
+      <c r="H47" s="534"/>
+      <c r="I47" s="535"/>
+      <c r="J47" s="536"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -10948,70 +10948,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11028,6 +10964,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11085,47 +11085,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11136,9 +11136,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11157,22 +11157,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11183,22 +11183,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11209,27 +11209,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
-      <c r="D7" s="515">
+      <c r="C7" s="582"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="581" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
-      <c r="K7" s="503">
+      <c r="J7" s="585"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11748,12 +11748,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4">
       <c r="A24" s="78"/>
-      <c r="B24" s="562" t="s">
+      <c r="B24" s="586" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="563"/>
-      <c r="D24" s="563"/>
-      <c r="E24" s="564"/>
+      <c r="C24" s="587"/>
+      <c r="D24" s="587"/>
+      <c r="E24" s="588"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11775,12 +11775,12 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1">
       <c r="A25" s="78"/>
-      <c r="B25" s="547" t="s">
+      <c r="B25" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="548"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
+      <c r="C25" s="572"/>
+      <c r="D25" s="572"/>
+      <c r="E25" s="573"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11824,12 +11824,6 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11844,6 +11838,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11909,50 +11909,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="596">
+      <c r="B2" s="589">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11963,9 +11963,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11984,22 +11984,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12010,22 +12010,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12036,27 +12036,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12253,13 +12253,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="562" t="s">
+      <c r="B14" s="586" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="563"/>
-      <c r="D14" s="563"/>
-      <c r="E14" s="563"/>
-      <c r="F14" s="595"/>
+      <c r="C14" s="587"/>
+      <c r="D14" s="587"/>
+      <c r="E14" s="587"/>
+      <c r="F14" s="618"/>
       <c r="G14" s="56" t="s">
         <v>75</v>
       </c>
@@ -12278,12 +12278,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="547" t="s">
+      <c r="B15" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="548"/>
-      <c r="D15" s="548"/>
-      <c r="E15" s="549"/>
+      <c r="C15" s="572"/>
+      <c r="D15" s="572"/>
+      <c r="E15" s="573"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12334,12 +12334,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12354,6 +12348,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12427,47 +12427,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12478,9 +12478,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12499,22 +12499,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12525,22 +12525,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12551,27 +12551,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
-      <c r="D7" s="515">
+      <c r="C7" s="582"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="581" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
-      <c r="K7" s="503">
+      <c r="J7" s="585"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13054,6 +13054,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -13070,8 +13072,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13139,24 +13139,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13167,19 +13167,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13190,9 +13190,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13211,22 +13211,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13237,22 +13237,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13263,27 +13263,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
-      <c r="D7" s="515">
+      <c r="C7" s="582"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="581" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
-      <c r="K7" s="503">
+      <c r="J7" s="585"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13568,17 +13568,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13586,6 +13575,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13657,24 +13657,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="620"/>
       <c r="N2" s="621"/>
       <c r="O2" s="621"/>
@@ -13685,19 +13685,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="623"/>
       <c r="N3" s="624"/>
       <c r="O3" s="624"/>
@@ -13708,9 +13708,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13729,22 +13729,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="623"/>
       <c r="N5" s="624"/>
       <c r="O5" s="624"/>
@@ -13755,22 +13755,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="623"/>
       <c r="N6" s="624"/>
       <c r="O6" s="624"/>
@@ -13781,27 +13781,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="623"/>
       <c r="N7" s="624"/>
       <c r="O7" s="624"/>
@@ -14229,12 +14229,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="547" t="s">
+      <c r="B21" s="571" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="548"/>
-      <c r="D21" s="548"/>
-      <c r="E21" s="549"/>
+      <c r="C21" s="572"/>
+      <c r="D21" s="572"/>
+      <c r="E21" s="573"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14280,6 +14280,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14292,13 +14299,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14363,24 +14363,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14391,19 +14391,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14414,9 +14414,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14435,22 +14435,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="612"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14461,22 +14461,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="612"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="613"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="615"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14487,27 +14487,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="515">
+      <c r="C7" s="616"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="583"/>
+      <c r="F7" s="583"/>
+      <c r="G7" s="583"/>
+      <c r="H7" s="584"/>
+      <c r="I7" s="617" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="503">
+      <c r="J7" s="616"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14770,12 +14770,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="547" t="s">
+      <c r="B16" s="571" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="548"/>
-      <c r="D16" s="548"/>
-      <c r="E16" s="549"/>
+      <c r="C16" s="572"/>
+      <c r="D16" s="572"/>
+      <c r="E16" s="573"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14821,6 +14821,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14831,15 +14840,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2б-500-1 (Штофф Колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E70DA9-DC73-4C8E-85C7-CA9A9B1173A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -36,7 +37,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -502,15 +510,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2192,7 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="638">
@@ -3395,7 +3403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3410,7 +3418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3464,25 +3472,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,11 +3502,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3508,7 +3516,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3522,11 +3530,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
@@ -3538,13 +3546,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3557,7 +3565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,10 +3613,10 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3627,12 +3635,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3677,12 +3679,75 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3692,143 +3757,14 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3880,73 +3816,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3970,6 +3909,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3996,22 +4004,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4022,16 +4033,13 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4321,7 +4329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4367,7 +4381,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4412,7 +4432,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4456,7 +4482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4505,7 +4537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4551,7 +4589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4595,7 +4639,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4639,7 +4689,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4688,7 +4744,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4734,7 +4796,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4778,7 +4846,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4822,7 +4896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4871,7 +4951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4917,7 +5003,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4961,7 +5053,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5005,7 +5103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5054,7 +5158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5100,7 +5210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5144,7 +5260,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5188,7 +5310,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5237,7 +5365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5283,7 +5417,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5327,7 +5467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5370,7 +5516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5416,7 +5568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5465,7 +5623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5511,7 +5675,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5555,7 +5725,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5599,7 +5775,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5648,7 +5830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5694,7 +5882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5738,7 +5932,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5782,7 +5982,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5831,7 +6037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5877,7 +6089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5921,7 +6139,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5965,7 +6189,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6073,6 +6303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6108,6 +6355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6283,30 +6547,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="392"/>
       <c r="B1" s="484" t="s">
         <v>136</v>
@@ -6325,7 +6589,7 @@
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392"/>
       <c r="B2" s="392" t="s">
         <v>109</v>
@@ -6341,7 +6605,7 @@
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="494" t="s">
         <v>110</v>
       </c>
@@ -6357,7 +6621,7 @@
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="395"/>
       <c r="B4" s="396"/>
       <c r="C4" s="396"/>
@@ -6369,7 +6633,7 @@
       <c r="K4" s="394"/>
       <c r="M4" s="374"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="399" t="s">
         <v>111</v>
       </c>
@@ -6399,7 +6663,7 @@
       <c r="K5" s="402"/>
       <c r="L5" s="402"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="403">
         <v>1</v>
       </c>
@@ -6429,7 +6693,7 @@
       <c r="K6" s="395"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -6460,7 +6724,7 @@
       <c r="K7" s="395"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -6491,7 +6755,7 @@
       <c r="K8" s="395"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6522,7 +6786,7 @@
       <c r="K9" s="395"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6553,7 +6817,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6584,7 +6848,7 @@
       <c r="K11" s="395"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6616,7 +6880,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6648,7 +6912,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6681,7 +6945,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6712,7 +6976,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6743,7 +7007,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6774,7 +7038,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
       <c r="B18" s="479"/>
       <c r="C18" s="395"/>
@@ -6786,7 +7050,7 @@
       <c r="I18" s="395"/>
       <c r="J18" s="395"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="395"/>
       <c r="B19" s="423" t="s">
         <v>118</v>
@@ -6802,7 +7066,7 @@
       <c r="K19" s="424"/>
       <c r="L19" s="424"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="399" t="s">
         <v>119</v>
       </c>
@@ -6834,7 +7098,7 @@
       <c r="K20" s="402"/>
       <c r="L20" s="402"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="428">
         <f>E6*700000</f>
         <v>13300000</v>
@@ -6870,7 +7134,7 @@
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="436"/>
       <c r="B22" s="437"/>
       <c r="C22" s="437"/>
@@ -6893,7 +7157,7 @@
       <c r="K22" s="395"/>
       <c r="L22" s="395"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="441"/>
       <c r="B23" s="442"/>
       <c r="C23" s="442"/>
@@ -6907,7 +7171,7 @@
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="441"/>
       <c r="B24" s="387"/>
       <c r="C24" s="387"/>
@@ -6921,7 +7185,7 @@
       <c r="K24" s="435"/>
       <c r="L24" s="395"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="441"/>
       <c r="B25" s="442"/>
       <c r="C25" s="442"/>
@@ -6935,7 +7199,7 @@
       <c r="K25" s="449"/>
       <c r="L25" s="395"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="441"/>
       <c r="B26" s="442"/>
       <c r="C26" s="442"/>
@@ -6949,7 +7213,7 @@
       <c r="K26" s="435"/>
       <c r="L26" s="395"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
       <c r="B27" s="442"/>
       <c r="C27" s="442"/>
@@ -6963,7 +7227,7 @@
       <c r="K27" s="435"/>
       <c r="L27" s="395"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="441"/>
       <c r="B28" s="442"/>
       <c r="C28" s="442"/>
@@ -6977,7 +7241,7 @@
       <c r="K28" s="435"/>
       <c r="L28" s="395"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="441"/>
       <c r="B29" s="442"/>
       <c r="C29" s="442"/>
@@ -6991,7 +7255,7 @@
       <c r="K29" s="435"/>
       <c r="L29" s="395"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="441"/>
       <c r="B30" s="442"/>
       <c r="C30" s="442"/>
@@ -7005,7 +7269,7 @@
       <c r="K30" s="435"/>
       <c r="L30" s="395"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="441"/>
       <c r="B31" s="442"/>
       <c r="C31" s="442"/>
@@ -7019,7 +7283,7 @@
       <c r="K31" s="435"/>
       <c r="L31" s="395"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="441"/>
       <c r="B32" s="442"/>
       <c r="C32" s="442"/>
@@ -7033,7 +7297,7 @@
       <c r="K32" s="435"/>
       <c r="L32" s="395"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="441"/>
       <c r="B33" s="442"/>
       <c r="C33" s="442"/>
@@ -7047,7 +7311,7 @@
       <c r="K33" s="435"/>
       <c r="L33" s="395"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="441"/>
       <c r="B34" s="442"/>
       <c r="C34" s="442"/>
@@ -7061,7 +7325,7 @@
       <c r="K34" s="435"/>
       <c r="L34" s="395"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="441"/>
       <c r="B35" s="442"/>
       <c r="C35" s="442"/>
@@ -7075,7 +7339,7 @@
       <c r="K35" s="435"/>
       <c r="L35" s="395"/>
     </row>
-    <row r="36" spans="1:12" ht="13.8" thickBot="1">
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="452"/>
       <c r="B36" s="453"/>
       <c r="C36" s="453"/>
@@ -7089,7 +7353,7 @@
       <c r="K36" s="395"/>
       <c r="L36" s="395"/>
     </row>
-    <row r="37" spans="1:12" ht="13.8" thickBot="1">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="459" t="s">
         <v>128</v>
       </c>
@@ -7120,7 +7384,7 @@
       <c r="K37" s="467"/>
       <c r="L37" s="467"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="395"/>
       <c r="B40" s="395"/>
       <c r="C40" s="395"/>
@@ -7132,7 +7396,7 @@
       <c r="I40" s="395"/>
       <c r="J40" s="395"/>
     </row>
-    <row r="41" spans="1:12" ht="12.75" customHeight="1">
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="495" t="s">
         <v>129</v>
       </c>
@@ -7146,7 +7410,7 @@
       <c r="I41" s="395"/>
       <c r="J41" s="395"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="496" t="s">
         <v>130</v>
       </c>
@@ -7164,7 +7428,7 @@
       <c r="I42" s="395"/>
       <c r="J42" s="395"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="492">
         <f>A21-F37</f>
         <v>12722567</v>
@@ -7187,7 +7451,7 @@
       <c r="I43" s="471"/>
       <c r="J43" s="471"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="395"/>
       <c r="B44" s="395"/>
       <c r="C44" s="395"/>
@@ -7195,7 +7459,7 @@
       <c r="E44" s="395"/>
       <c r="F44" s="395"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="395"/>
       <c r="B45" s="395"/>
       <c r="C45" s="395"/>
@@ -7210,7 +7474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="395"/>
       <c r="B46" s="472"/>
       <c r="C46" s="472"/>
@@ -7222,7 +7486,7 @@
       <c r="I46" s="395"/>
       <c r="J46" s="395"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="473"/>
       <c r="B47" s="473"/>
       <c r="C47" s="473"/>
@@ -7234,7 +7498,7 @@
       <c r="I47" s="497"/>
       <c r="J47" s="498"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="474"/>
       <c r="B48" s="475"/>
       <c r="C48" s="475"/>
@@ -7244,7 +7508,7 @@
       <c r="G48" s="421"/>
       <c r="H48" s="475"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="474"/>
       <c r="B49" s="475"/>
       <c r="C49" s="475"/>
@@ -7254,7 +7518,7 @@
       <c r="G49" s="421"/>
       <c r="H49" s="475"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="474"/>
       <c r="B50" s="475"/>
       <c r="C50" s="475"/>
@@ -7264,7 +7528,7 @@
       <c r="G50" s="421"/>
       <c r="H50" s="475"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="474"/>
       <c r="B51" s="475"/>
       <c r="C51" s="475"/>
@@ -7274,7 +7538,7 @@
       <c r="G51" s="421"/>
       <c r="H51" s="475"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="474"/>
       <c r="B52" s="475"/>
       <c r="C52" s="475"/>
@@ -7284,7 +7548,7 @@
       <c r="G52" s="421"/>
       <c r="H52" s="475"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="474"/>
       <c r="B53" s="475"/>
       <c r="C53" s="413"/>
@@ -7294,7 +7558,7 @@
       <c r="G53" s="413"/>
       <c r="H53" s="413"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="474"/>
       <c r="B54" s="475"/>
       <c r="C54" s="475"/>
@@ -7304,7 +7568,7 @@
       <c r="G54" s="421"/>
       <c r="H54" s="475"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="474"/>
       <c r="B55" s="475"/>
       <c r="C55" s="475"/>
@@ -7314,7 +7578,7 @@
       <c r="G55" s="421"/>
       <c r="H55" s="475"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="474"/>
       <c r="B56" s="475"/>
       <c r="C56" s="475"/>
@@ -7324,7 +7588,7 @@
       <c r="G56" s="421"/>
       <c r="H56" s="475"/>
     </row>
-    <row r="57" spans="1:10" ht="15.6">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="395"/>
       <c r="B57" s="499"/>
       <c r="C57" s="499"/>
@@ -7336,7 +7600,7 @@
       <c r="I57" s="395"/>
       <c r="J57" s="395"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="473"/>
       <c r="B58" s="473"/>
       <c r="C58" s="473"/>
@@ -7348,7 +7612,7 @@
       <c r="I58" s="497"/>
       <c r="J58" s="498"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="474"/>
       <c r="B59" s="395"/>
       <c r="C59" s="395"/>
@@ -7360,7 +7624,7 @@
       <c r="I59" s="501"/>
       <c r="J59" s="501"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="474"/>
       <c r="B60" s="395"/>
       <c r="C60" s="395"/>
@@ -7372,7 +7636,7 @@
       <c r="I60" s="501"/>
       <c r="J60" s="501"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="395"/>
       <c r="B61" s="395"/>
       <c r="C61" s="395"/>
@@ -7382,11 +7646,11 @@
       <c r="G61" s="395"/>
       <c r="H61" s="395"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="497"/>
       <c r="C66" s="498"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="497"/>
       <c r="C73" s="498"/>
     </row>
@@ -7405,7 +7669,7 @@
     <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -7413,7 +7677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7423,20 +7687,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="171" customWidth="1"/>
     <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="19" max="19" width="1.42578125" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167"/>
       <c r="B1" s="168"/>
       <c r="C1" s="169"/>
@@ -7457,26 +7721,26 @@
       <c r="R1" s="169"/>
       <c r="S1" s="170"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -7485,21 +7749,21 @@
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7508,11 +7772,11 @@
       <c r="R3" s="180"/>
       <c r="S3" s="177"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7529,24 +7793,24 @@
       <c r="R4" s="180"/>
       <c r="S4" s="177"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7555,24 +7819,24 @@
       <c r="R5" s="180"/>
       <c r="S5" s="177"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7581,29 +7845,29 @@
       <c r="R6" s="180"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7612,7 +7876,7 @@
       <c r="R7" s="180"/>
       <c r="S7" s="177"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="183"/>
       <c r="C8" s="184"/>
@@ -7633,7 +7897,7 @@
       <c r="R8" s="187"/>
       <c r="S8" s="188"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7666,7 +7930,7 @@
       <c r="R9" s="348"/>
       <c r="S9" s="204"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="182"/>
       <c r="B10" s="191" t="s">
         <v>25</v>
@@ -7701,7 +7965,7 @@
       <c r="R10" s="350"/>
       <c r="S10" s="188"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -7734,7 +7998,7 @@
       <c r="R11" s="352"/>
       <c r="S11" s="188"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -7767,7 +8031,7 @@
       <c r="R12" s="352"/>
       <c r="S12" s="188"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182"/>
       <c r="B13" s="193" t="s">
         <v>3</v>
@@ -7800,7 +8064,7 @@
       <c r="R13" s="352"/>
       <c r="S13" s="188"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="193" t="s">
         <v>27</v>
@@ -7833,7 +8097,7 @@
       <c r="R14" s="352"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="193" t="s">
         <v>28</v>
@@ -7866,7 +8130,7 @@
       <c r="R15" s="352"/>
       <c r="S15" s="188"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182"/>
       <c r="B16" s="193" t="s">
         <v>4</v>
@@ -7899,7 +8163,7 @@
       <c r="R16" s="352"/>
       <c r="S16" s="188"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="182"/>
       <c r="B17" s="193" t="s">
         <v>9</v>
@@ -7932,7 +8196,7 @@
       <c r="R17" s="352"/>
       <c r="S17" s="188"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="182"/>
       <c r="B18" s="193" t="s">
         <v>5</v>
@@ -7965,7 +8229,7 @@
       <c r="R18" s="352"/>
       <c r="S18" s="188"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195"/>
       <c r="B19" s="196"/>
       <c r="C19" s="196"/>
@@ -7986,20 +8250,9 @@
       <c r="R19" s="196"/>
       <c r="S19" s="198"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8007,6 +8260,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8026,7 +8290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8036,20 +8300,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="210" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="210" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="210" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="210" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="210" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="210" customWidth="1"/>
     <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="19" max="19" width="1.42578125" style="210" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207"/>
       <c r="C1" s="208"/>
@@ -8070,49 +8334,49 @@
       <c r="R1" s="208"/>
       <c r="S1" s="209"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8121,11 +8385,11 @@
       <c r="R3" s="219"/>
       <c r="S3" s="216"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8142,24 +8406,24 @@
       <c r="R4" s="219"/>
       <c r="S4" s="216"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8168,24 +8432,24 @@
       <c r="R5" s="219"/>
       <c r="S5" s="216"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8194,29 +8458,29 @@
       <c r="R6" s="219"/>
       <c r="S6" s="216"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8225,7 +8489,7 @@
       <c r="R7" s="219"/>
       <c r="S7" s="216"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="222"/>
       <c r="C8" s="223"/>
@@ -8246,7 +8510,7 @@
       <c r="R8" s="226"/>
       <c r="S8" s="227"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8279,7 +8543,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="231"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="232" t="s">
         <v>25</v>
@@ -8312,7 +8576,7 @@
       <c r="R10" s="236"/>
       <c r="S10" s="227"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="221"/>
       <c r="B11" s="237" t="s">
         <v>26</v>
@@ -8345,7 +8609,7 @@
       <c r="R11" s="241"/>
       <c r="S11" s="227"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="221"/>
       <c r="B12" s="237" t="s">
         <v>2</v>
@@ -8378,7 +8642,7 @@
       <c r="R12" s="241"/>
       <c r="S12" s="227"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="221"/>
       <c r="B13" s="237" t="s">
         <v>3</v>
@@ -8411,7 +8675,7 @@
       <c r="R13" s="241"/>
       <c r="S13" s="227"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="221"/>
       <c r="B14" s="237" t="s">
         <v>27</v>
@@ -8444,7 +8708,7 @@
       <c r="R14" s="241"/>
       <c r="S14" s="227"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="221"/>
       <c r="B15" s="237" t="s">
         <v>28</v>
@@ -8477,7 +8741,7 @@
       <c r="R15" s="241"/>
       <c r="S15" s="227"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="221"/>
       <c r="B16" s="237" t="s">
         <v>9</v>
@@ -8510,7 +8774,7 @@
       <c r="R16" s="241"/>
       <c r="S16" s="227"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="237" t="s">
         <v>5</v>
@@ -8543,14 +8807,14 @@
       <c r="R17" s="241"/>
       <c r="S17" s="227"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="629" t="s">
+      <c r="B18" s="628" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="630"/>
-      <c r="D18" s="630"/>
-      <c r="E18" s="631"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8570,7 +8834,7 @@
       <c r="R18" s="245"/>
       <c r="S18" s="227"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="246"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
@@ -8591,9 +8855,17 @@
       <c r="R19" s="247"/>
       <c r="S19" s="249"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8605,14 +8877,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8652,7 +8916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8662,20 +8926,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8696,26 +8960,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -8724,21 +8988,21 @@
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8747,11 +9011,11 @@
       <c r="R3" s="143"/>
       <c r="S3" s="140"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8768,24 +9032,24 @@
       <c r="R4" s="143"/>
       <c r="S4" s="140"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8794,24 +9058,24 @@
       <c r="R5" s="143"/>
       <c r="S5" s="140"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8820,29 +9084,29 @@
       <c r="R6" s="143"/>
       <c r="S6" s="140"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8851,7 +9115,7 @@
       <c r="R7" s="143"/>
       <c r="S7" s="140"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -8872,7 +9136,7 @@
       <c r="R8" s="149"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8905,7 +9169,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="154"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="156" t="s">
         <v>25</v>
@@ -8938,7 +9202,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="159"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="156" t="s">
         <v>26</v>
@@ -8971,7 +9235,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="156" t="s">
         <v>2</v>
@@ -9004,7 +9268,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="159"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="156" t="s">
         <v>3</v>
@@ -9037,7 +9301,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="156" t="s">
         <v>27</v>
@@ -9070,7 +9334,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="159"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="156" t="s">
         <v>28</v>
@@ -9103,7 +9367,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="159"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="156" t="s">
         <v>4</v>
@@ -9136,7 +9400,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="159"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -9157,7 +9421,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -9178,7 +9442,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
@@ -9199,7 +9463,7 @@
       <c r="R19" s="111"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -9220,20 +9484,9 @@
       <c r="R20" s="115"/>
       <c r="S20" s="116"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9241,6 +9494,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9260,7 +9524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9270,20 +9534,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="267" customWidth="1"/>
     <col min="2" max="2" width="5" style="267" customWidth="1"/>
     <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="267" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="267" customWidth="1"/>
     <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="19" max="19" width="1.42578125" style="267" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="267"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263"/>
       <c r="B1" s="264"/>
       <c r="C1" s="265"/>
@@ -9304,49 +9568,49 @@
       <c r="R1" s="265"/>
       <c r="S1" s="266"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="633">
+      <c r="J2" s="612"/>
+      <c r="K2" s="634">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="L2" s="634"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="635"/>
-      <c r="L3" s="636"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9355,11 +9619,11 @@
       <c r="R3" s="276"/>
       <c r="S3" s="273"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9376,24 +9640,24 @@
       <c r="R4" s="276"/>
       <c r="S4" s="273"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9402,24 +9666,24 @@
       <c r="R5" s="276"/>
       <c r="S5" s="273"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9428,29 +9692,29 @@
       <c r="R6" s="276"/>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9459,7 +9723,7 @@
       <c r="R7" s="276"/>
       <c r="S7" s="273"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="278"/>
       <c r="B8" s="279"/>
       <c r="C8" s="280"/>
@@ -9480,7 +9744,7 @@
       <c r="R8" s="283"/>
       <c r="S8" s="284"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="285"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -9513,7 +9777,7 @@
       <c r="R9" s="354"/>
       <c r="S9" s="287"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="278"/>
       <c r="B10" s="288" t="s">
         <v>25</v>
@@ -9546,7 +9810,7 @@
       <c r="R10" s="356"/>
       <c r="S10" s="284"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="278"/>
       <c r="B11" s="292" t="s">
         <v>26</v>
@@ -9579,7 +9843,7 @@
       <c r="R11" s="357"/>
       <c r="S11" s="284"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="278"/>
       <c r="B12" s="292" t="s">
         <v>2</v>
@@ -9612,7 +9876,7 @@
       <c r="R12" s="359"/>
       <c r="S12" s="284"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="278"/>
       <c r="B13" s="292" t="s">
         <v>28</v>
@@ -9645,7 +9909,7 @@
       <c r="R13" s="359"/>
       <c r="S13" s="284"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="278"/>
       <c r="B14" s="292" t="s">
         <v>4</v>
@@ -9678,7 +9942,7 @@
       <c r="R14" s="359"/>
       <c r="S14" s="284"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="278"/>
       <c r="B15" s="298"/>
       <c r="C15" s="299"/>
@@ -9699,7 +9963,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="284"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="301"/>
       <c r="B16" s="302"/>
       <c r="C16" s="302"/>
@@ -9720,9 +9984,11 @@
       <c r="R16" s="302"/>
       <c r="S16" s="304"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9739,8 +10005,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9766,90 +10030,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="507" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="505" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
       <c r="G1" s="373" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="508" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="506" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="510"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
       <c r="G2" s="372" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="372" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="512" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="510" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="514" t="s">
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="512" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="515"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="515"/>
-      <c r="E5" s="516"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="507" t="s">
+      <c r="B5" s="513"/>
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="514"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="517"/>
-      <c r="B8" s="518"/>
-      <c r="C8" s="518"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="519"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="507" t="s">
+      <c r="B7" s="509"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="509"/>
+      <c r="E7" s="509"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="515"/>
+      <c r="B8" s="516"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="517"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="505" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="507"/>
+      <c r="B10" s="505"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -9859,36 +10123,36 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="505"/>
-      <c r="B11" s="506"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="503"/>
+      <c r="B11" s="504"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="518" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="503"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="502" t="s">
+      <c r="K11" s="519"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="518" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="503"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="519"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
         <v>86</v>
       </c>
@@ -9898,18 +10162,18 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="518" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="503"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="519"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
         <v>41</v>
       </c>
@@ -9920,7 +10184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="377" t="s">
         <v>42</v>
       </c>
@@ -9931,7 +10195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="377" t="s">
         <v>38</v>
       </c>
@@ -9942,7 +10206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="377" t="s">
         <v>23</v>
       </c>
@@ -9953,7 +10217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="377" t="s">
         <v>45</v>
       </c>
@@ -9964,7 +10228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="377" t="s">
         <v>88</v>
       </c>
@@ -9975,7 +10239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="377" t="s">
         <v>49</v>
       </c>
@@ -9986,7 +10250,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="377" t="s">
         <v>51</v>
       </c>
@@ -9997,7 +10261,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="377" t="s">
         <v>89</v>
       </c>
@@ -10006,7 +10270,7 @@
       </c>
       <c r="C22" s="384"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="377" t="s">
         <v>54</v>
       </c>
@@ -10017,7 +10281,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="377" t="s">
         <v>68</v>
       </c>
@@ -10028,7 +10292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="379" t="s">
         <v>53</v>
       </c>
@@ -10039,7 +10303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="379" t="s">
         <v>104</v>
       </c>
@@ -10048,30 +10312,36 @@
       </c>
       <c r="C26" s="387"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="379" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="391"/>
       <c r="C27" s="387"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="504" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="502" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="504"/>
-      <c r="C29" s="504"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="502"/>
+      <c r="C29" s="502"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="373" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -10081,12 +10351,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10094,25 +10358,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H26" sqref="H26:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.140625" style="309"/>
     <col min="4" max="4" width="8" style="309" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="5" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="318" t="s">
         <v>56</v>
       </c>
@@ -10121,7 +10385,7 @@
       <c r="J2" s="319"/>
       <c r="K2" s="319"/>
     </row>
-    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="318" t="s">
         <v>100</v>
       </c>
@@ -10130,7 +10394,7 @@
       <c r="J3" s="319"/>
       <c r="K3" s="319"/>
     </row>
-    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="318" t="s">
         <v>103</v>
       </c>
@@ -10139,8 +10403,8 @@
       <c r="J4" s="319"/>
       <c r="K4" s="319"/>
     </row>
-    <row r="5" spans="1:11" s="369" customFormat="1"/>
-    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="370"/>
       <c r="H6" s="318" t="s">
         <v>101</v>
@@ -10148,12 +10412,12 @@
       <c r="I6" s="319"/>
       <c r="J6" s="319"/>
     </row>
-    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="319"/>
       <c r="I7" s="319"/>
       <c r="J7" s="319"/>
     </row>
-    <row r="8" spans="1:11" s="369" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="369" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="312" t="s">
         <v>57</v>
       </c>
@@ -10163,50 +10427,50 @@
       </c>
       <c r="J8" s="319"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="545" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="521" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="545"/>
-      <c r="C11" s="545"/>
-      <c r="D11" s="545"/>
-      <c r="E11" s="545"/>
-      <c r="F11" s="545"/>
-      <c r="G11" s="545"/>
-      <c r="H11" s="545"/>
-      <c r="I11" s="545"/>
-      <c r="J11" s="545"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="544" t="s">
+      <c r="B11" s="521"/>
+      <c r="C11" s="521"/>
+      <c r="D11" s="521"/>
+      <c r="E11" s="521"/>
+      <c r="F11" s="521"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="521"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="520" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="544"/>
-      <c r="C12" s="544"/>
-      <c r="D12" s="544"/>
-      <c r="E12" s="544"/>
-      <c r="F12" s="544"/>
-      <c r="G12" s="544"/>
-      <c r="H12" s="544"/>
-      <c r="I12" s="544"/>
-      <c r="J12" s="544"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="546" t="str">
+      <c r="B12" s="520"/>
+      <c r="C12" s="520"/>
+      <c r="D12" s="520"/>
+      <c r="E12" s="520"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="520"/>
+      <c r="H12" s="520"/>
+      <c r="I12" s="520"/>
+      <c r="J12" s="520"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="522" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="545"/>
-      <c r="C13" s="545"/>
-      <c r="D13" s="545"/>
-      <c r="E13" s="545"/>
-      <c r="F13" s="545"/>
-      <c r="G13" s="545"/>
-      <c r="H13" s="545"/>
-      <c r="I13" s="545"/>
-      <c r="J13" s="545"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
+      <c r="B13" s="521"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="521"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="521"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="521"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>58</v>
       </c>
@@ -10223,7 +10487,7 @@
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="313" t="s">
         <v>94</v>
       </c>
@@ -10237,7 +10501,7 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="321" t="s">
         <v>59</v>
       </c>
@@ -10258,7 +10522,7 @@
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="321" t="s">
         <v>59</v>
       </c>
@@ -10279,7 +10543,7 @@
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
       <c r="B19" s="322"/>
       <c r="C19" s="322"/>
@@ -10297,7 +10561,7 @@
       </c>
       <c r="J19" s="314"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="313" t="s">
         <v>73</v>
       </c>
@@ -10314,7 +10578,7 @@
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="313" t="s">
         <v>74</v>
       </c>
@@ -10328,500 +10592,500 @@
       <c r="I21" s="313"/>
       <c r="J21" s="314"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="542" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="526" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="542" t="s">
+      <c r="B22" s="526" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="542"/>
-      <c r="D22" s="542"/>
-      <c r="E22" s="542" t="s">
+      <c r="C22" s="526"/>
+      <c r="D22" s="526"/>
+      <c r="E22" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="542"/>
-      <c r="G22" s="543" t="s">
+      <c r="F22" s="526"/>
+      <c r="G22" s="544" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="542" t="s">
+      <c r="H22" s="526" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="542"/>
-      <c r="J22" s="542"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="542"/>
-      <c r="B23" s="542"/>
-      <c r="C23" s="542"/>
-      <c r="D23" s="542"/>
-      <c r="E23" s="542"/>
-      <c r="F23" s="542"/>
-      <c r="G23" s="543"/>
-      <c r="H23" s="542"/>
-      <c r="I23" s="542"/>
-      <c r="J23" s="542"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="520">
+      <c r="I22" s="526"/>
+      <c r="J22" s="526"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="526"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="526"/>
+      <c r="D23" s="526"/>
+      <c r="E23" s="526"/>
+      <c r="F23" s="526"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="526"/>
+      <c r="I23" s="526"/>
+      <c r="J23" s="526"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="522" t="s">
+      <c r="B24" s="541" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="523"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="525" t="str">
+      <c r="C24" s="542"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="529" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F24" s="526"/>
-      <c r="G24" s="529">
+      <c r="F24" s="530"/>
+      <c r="G24" s="533">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="H24" s="540" t="s">
+      <c r="H24" s="535" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="532"/>
-      <c r="J24" s="533"/>
-    </row>
-    <row r="25" spans="1:10" ht="58.8" customHeight="1">
-      <c r="A25" s="521"/>
-      <c r="B25" s="537" t="str">
+      <c r="I24" s="536"/>
+      <c r="J24" s="537"/>
+    </row>
+    <row r="25" spans="1:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="528"/>
+      <c r="B25" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C25" s="538"/>
-      <c r="D25" s="539"/>
-      <c r="E25" s="541"/>
-      <c r="F25" s="528"/>
-      <c r="G25" s="530"/>
-      <c r="H25" s="534"/>
-      <c r="I25" s="535"/>
-      <c r="J25" s="536"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="520">
+      <c r="C25" s="524"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="532"/>
+      <c r="G25" s="534"/>
+      <c r="H25" s="538"/>
+      <c r="I25" s="539"/>
+      <c r="J25" s="540"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="522" t="s">
+      <c r="B26" s="541" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="523"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="525" t="str">
+      <c r="C26" s="542"/>
+      <c r="D26" s="543"/>
+      <c r="E26" s="529" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F26" s="526"/>
-      <c r="G26" s="529">
+      <c r="F26" s="530"/>
+      <c r="G26" s="533">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="H26" s="540" t="s">
+      <c r="H26" s="535" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="532"/>
-      <c r="J26" s="533"/>
-    </row>
-    <row r="27" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A27" s="521"/>
-      <c r="B27" s="537" t="str">
+      <c r="I26" s="536"/>
+      <c r="J26" s="537"/>
+    </row>
+    <row r="27" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="528"/>
+      <c r="B27" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C27" s="538"/>
-      <c r="D27" s="539"/>
-      <c r="E27" s="541"/>
-      <c r="F27" s="528"/>
-      <c r="G27" s="530"/>
-      <c r="H27" s="534"/>
-      <c r="I27" s="535"/>
-      <c r="J27" s="536"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="520">
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="531"/>
+      <c r="F27" s="532"/>
+      <c r="G27" s="534"/>
+      <c r="H27" s="538"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="540"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="527">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="522" t="s">
+      <c r="B28" s="541" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
-      <c r="E28" s="525" t="str">
+      <c r="C28" s="542"/>
+      <c r="D28" s="543"/>
+      <c r="E28" s="529" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F28" s="526"/>
-      <c r="G28" s="529">
+      <c r="F28" s="530"/>
+      <c r="G28" s="533">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="531"/>
-      <c r="I28" s="532"/>
-      <c r="J28" s="533"/>
-    </row>
-    <row r="29" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A29" s="521"/>
-      <c r="B29" s="537" t="str">
+      <c r="H28" s="545"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537"/>
+    </row>
+    <row r="29" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="528"/>
+      <c r="B29" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C29" s="538"/>
-      <c r="D29" s="539"/>
-      <c r="E29" s="541"/>
-      <c r="F29" s="528"/>
-      <c r="G29" s="530"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="535"/>
-      <c r="J29" s="536"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="520">
+      <c r="C29" s="524"/>
+      <c r="D29" s="525"/>
+      <c r="E29" s="531"/>
+      <c r="F29" s="532"/>
+      <c r="G29" s="534"/>
+      <c r="H29" s="538"/>
+      <c r="I29" s="539"/>
+      <c r="J29" s="540"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="527">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="522" t="s">
+      <c r="B30" s="541" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="523"/>
-      <c r="D30" s="524"/>
-      <c r="E30" s="525" t="str">
+      <c r="C30" s="542"/>
+      <c r="D30" s="543"/>
+      <c r="E30" s="529" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F30" s="526"/>
-      <c r="G30" s="529">
+      <c r="F30" s="530"/>
+      <c r="G30" s="533">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="531"/>
-      <c r="I30" s="532"/>
-      <c r="J30" s="533"/>
-    </row>
-    <row r="31" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A31" s="521"/>
-      <c r="B31" s="537" t="str">
+      <c r="H30" s="545"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537"/>
+    </row>
+    <row r="31" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="528"/>
+      <c r="B31" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C31" s="538"/>
-      <c r="D31" s="539"/>
-      <c r="E31" s="527"/>
-      <c r="F31" s="528"/>
-      <c r="G31" s="530"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="535"/>
-      <c r="J31" s="536"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="520">
+      <c r="C31" s="524"/>
+      <c r="D31" s="525"/>
+      <c r="E31" s="546"/>
+      <c r="F31" s="532"/>
+      <c r="G31" s="534"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="540"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="522" t="s">
+      <c r="B32" s="541" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="523"/>
-      <c r="D32" s="524"/>
-      <c r="E32" s="525" t="str">
+      <c r="C32" s="542"/>
+      <c r="D32" s="543"/>
+      <c r="E32" s="529" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F32" s="526"/>
-      <c r="G32" s="529">
+      <c r="F32" s="530"/>
+      <c r="G32" s="533">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="531"/>
-      <c r="I32" s="532"/>
-      <c r="J32" s="533"/>
-    </row>
-    <row r="33" spans="1:10" ht="54.6" customHeight="1">
-      <c r="A33" s="521"/>
-      <c r="B33" s="537" t="str">
+      <c r="H32" s="545"/>
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
+    </row>
+    <row r="33" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="528"/>
+      <c r="B33" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C33" s="538"/>
-      <c r="D33" s="539"/>
-      <c r="E33" s="527"/>
-      <c r="F33" s="528"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="535"/>
-      <c r="J33" s="536"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="520">
+      <c r="C33" s="524"/>
+      <c r="D33" s="525"/>
+      <c r="E33" s="546"/>
+      <c r="F33" s="532"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="522" t="s">
+      <c r="B34" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="523"/>
-      <c r="D34" s="524"/>
-      <c r="E34" s="525" t="str">
+      <c r="C34" s="542"/>
+      <c r="D34" s="543"/>
+      <c r="E34" s="529" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F34" s="526"/>
-      <c r="G34" s="529">
+      <c r="F34" s="530"/>
+      <c r="G34" s="533">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="531"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="533"/>
-    </row>
-    <row r="35" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A35" s="521"/>
-      <c r="B35" s="537" t="str">
+      <c r="H34" s="545"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537"/>
+    </row>
+    <row r="35" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="528"/>
+      <c r="B35" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C35" s="538"/>
-      <c r="D35" s="539"/>
-      <c r="E35" s="527"/>
-      <c r="F35" s="528"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="535"/>
-      <c r="J35" s="536"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="520">
+      <c r="C35" s="524"/>
+      <c r="D35" s="525"/>
+      <c r="E35" s="546"/>
+      <c r="F35" s="532"/>
+      <c r="G35" s="534"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="522" t="s">
+      <c r="B36" s="541" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="523"/>
-      <c r="D36" s="524"/>
-      <c r="E36" s="525" t="str">
+      <c r="C36" s="542"/>
+      <c r="D36" s="543"/>
+      <c r="E36" s="529" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F36" s="526"/>
-      <c r="G36" s="529">
+      <c r="F36" s="530"/>
+      <c r="G36" s="533">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="531"/>
-      <c r="I36" s="532"/>
-      <c r="J36" s="533"/>
-    </row>
-    <row r="37" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A37" s="521"/>
-      <c r="B37" s="537" t="str">
+      <c r="H36" s="545"/>
+      <c r="I36" s="536"/>
+      <c r="J36" s="537"/>
+    </row>
+    <row r="37" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="528"/>
+      <c r="B37" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C37" s="538"/>
-      <c r="D37" s="539"/>
-      <c r="E37" s="527"/>
-      <c r="F37" s="528"/>
-      <c r="G37" s="530"/>
-      <c r="H37" s="534"/>
-      <c r="I37" s="535"/>
-      <c r="J37" s="536"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="520">
+      <c r="C37" s="524"/>
+      <c r="D37" s="525"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="532"/>
+      <c r="G37" s="534"/>
+      <c r="H37" s="538"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="540"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="522" t="s">
+      <c r="B38" s="541" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="523"/>
-      <c r="D38" s="524"/>
-      <c r="E38" s="525" t="str">
+      <c r="C38" s="542"/>
+      <c r="D38" s="543"/>
+      <c r="E38" s="529" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F38" s="526"/>
-      <c r="G38" s="529">
+      <c r="F38" s="530"/>
+      <c r="G38" s="533">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="531"/>
-      <c r="I38" s="532"/>
-      <c r="J38" s="533"/>
-    </row>
-    <row r="39" spans="1:10" ht="69.599999999999994" customHeight="1">
-      <c r="A39" s="521"/>
-      <c r="B39" s="537" t="str">
+      <c r="H38" s="545"/>
+      <c r="I38" s="536"/>
+      <c r="J38" s="537"/>
+    </row>
+    <row r="39" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="528"/>
+      <c r="B39" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C39" s="538"/>
-      <c r="D39" s="539"/>
-      <c r="E39" s="527"/>
-      <c r="F39" s="528"/>
-      <c r="G39" s="530"/>
-      <c r="H39" s="534"/>
-      <c r="I39" s="535"/>
-      <c r="J39" s="536"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="520">
+      <c r="C39" s="524"/>
+      <c r="D39" s="525"/>
+      <c r="E39" s="546"/>
+      <c r="F39" s="532"/>
+      <c r="G39" s="534"/>
+      <c r="H39" s="538"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="540"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="527">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="522" t="s">
+      <c r="B40" s="541" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="523"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="525" t="str">
+      <c r="C40" s="542"/>
+      <c r="D40" s="543"/>
+      <c r="E40" s="529" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F40" s="526"/>
-      <c r="G40" s="529">
+      <c r="F40" s="530"/>
+      <c r="G40" s="533">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="H40" s="531"/>
-      <c r="I40" s="532"/>
-      <c r="J40" s="533"/>
-    </row>
-    <row r="41" spans="1:10" ht="54" customHeight="1">
-      <c r="A41" s="521"/>
-      <c r="B41" s="537" t="str">
+      <c r="H40" s="545"/>
+      <c r="I40" s="536"/>
+      <c r="J40" s="537"/>
+    </row>
+    <row r="41" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="528"/>
+      <c r="B41" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C41" s="538"/>
-      <c r="D41" s="539"/>
-      <c r="E41" s="527"/>
-      <c r="F41" s="528"/>
-      <c r="G41" s="530"/>
-      <c r="H41" s="534"/>
-      <c r="I41" s="535"/>
-      <c r="J41" s="536"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="520">
+      <c r="C41" s="524"/>
+      <c r="D41" s="525"/>
+      <c r="E41" s="546"/>
+      <c r="F41" s="532"/>
+      <c r="G41" s="534"/>
+      <c r="H41" s="538"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="527">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="522" t="s">
+      <c r="B42" s="541" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="523"/>
-      <c r="D42" s="524"/>
-      <c r="E42" s="525" t="str">
+      <c r="C42" s="542"/>
+      <c r="D42" s="543"/>
+      <c r="E42" s="529" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F42" s="526"/>
-      <c r="G42" s="529">
+      <c r="F42" s="530"/>
+      <c r="G42" s="533">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="531"/>
-      <c r="I42" s="532"/>
-      <c r="J42" s="533"/>
-    </row>
-    <row r="43" spans="1:10" ht="54" customHeight="1">
-      <c r="A43" s="521"/>
-      <c r="B43" s="537" t="str">
+      <c r="H42" s="545"/>
+      <c r="I42" s="536"/>
+      <c r="J42" s="537"/>
+    </row>
+    <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="528"/>
+      <c r="B43" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C43" s="538"/>
-      <c r="D43" s="539"/>
-      <c r="E43" s="527"/>
-      <c r="F43" s="528"/>
-      <c r="G43" s="530"/>
-      <c r="H43" s="534"/>
-      <c r="I43" s="535"/>
-      <c r="J43" s="536"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="520">
+      <c r="C43" s="524"/>
+      <c r="D43" s="525"/>
+      <c r="E43" s="546"/>
+      <c r="F43" s="532"/>
+      <c r="G43" s="534"/>
+      <c r="H43" s="538"/>
+      <c r="I43" s="539"/>
+      <c r="J43" s="540"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="522" t="s">
+      <c r="B44" s="541" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="523"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="525">
+      <c r="C44" s="542"/>
+      <c r="D44" s="543"/>
+      <c r="E44" s="529">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="526"/>
-      <c r="G44" s="529">
+      <c r="F44" s="530"/>
+      <c r="G44" s="533">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="531"/>
-      <c r="I44" s="532"/>
-      <c r="J44" s="533"/>
-    </row>
-    <row r="45" spans="1:10" ht="53.4" customHeight="1">
-      <c r="A45" s="521"/>
-      <c r="B45" s="537" t="str">
+      <c r="H44" s="545"/>
+      <c r="I44" s="536"/>
+      <c r="J44" s="537"/>
+    </row>
+    <row r="45" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="528"/>
+      <c r="B45" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C45" s="538"/>
-      <c r="D45" s="539"/>
-      <c r="E45" s="527"/>
-      <c r="F45" s="528"/>
-      <c r="G45" s="530"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="535"/>
-      <c r="J45" s="536"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="520">
+      <c r="C45" s="524"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="546"/>
+      <c r="F45" s="532"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="538"/>
+      <c r="I45" s="539"/>
+      <c r="J45" s="540"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="522" t="s">
+      <c r="B46" s="541" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="523"/>
-      <c r="D46" s="524"/>
-      <c r="E46" s="525" t="str">
+      <c r="C46" s="542"/>
+      <c r="D46" s="543"/>
+      <c r="E46" s="529" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F46" s="526"/>
-      <c r="G46" s="529">
+      <c r="F46" s="530"/>
+      <c r="G46" s="533">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="531"/>
-      <c r="I46" s="532"/>
-      <c r="J46" s="533"/>
-    </row>
-    <row r="47" spans="1:10" ht="54" customHeight="1">
-      <c r="A47" s="521"/>
-      <c r="B47" s="537" t="str">
+      <c r="H46" s="545"/>
+      <c r="I46" s="536"/>
+      <c r="J46" s="537"/>
+    </row>
+    <row r="47" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="528"/>
+      <c r="B47" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C47" s="538"/>
-      <c r="D47" s="539"/>
-      <c r="E47" s="527"/>
-      <c r="F47" s="528"/>
-      <c r="G47" s="530"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="535"/>
-      <c r="J47" s="536"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="C47" s="524"/>
+      <c r="D47" s="525"/>
+      <c r="E47" s="546"/>
+      <c r="F47" s="532"/>
+      <c r="G47" s="534"/>
+      <c r="H47" s="538"/>
+      <c r="I47" s="539"/>
+      <c r="J47" s="540"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
       <c r="B48" s="313"/>
       <c r="C48" s="313"/>
@@ -10833,7 +11097,7 @@
       <c r="I48" s="313"/>
       <c r="J48" s="314"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="313" t="s">
         <v>69</v>
       </c>
@@ -10847,7 +11111,7 @@
       <c r="I49" s="313"/>
       <c r="J49" s="314"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="313"/>
       <c r="B50" s="313"/>
       <c r="C50" s="313"/>
@@ -10859,7 +11123,7 @@
       <c r="I50" s="313"/>
       <c r="J50" s="314"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="313"/>
       <c r="B51" s="316" t="s">
         <v>70</v>
@@ -10875,7 +11139,7 @@
       <c r="I51" s="313"/>
       <c r="J51" s="314"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="313"/>
       <c r="B52" s="313"/>
       <c r="C52" s="313"/>
@@ -10887,7 +11151,7 @@
       <c r="I52" s="313"/>
       <c r="J52" s="314"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="313"/>
       <c r="B53" s="313"/>
       <c r="C53" s="313"/>
@@ -10901,7 +11165,7 @@
       </c>
       <c r="J53" s="313"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="313"/>
       <c r="B54" s="313"/>
       <c r="C54" s="313"/>
@@ -10912,7 +11176,7 @@
       <c r="I54" s="313"/>
       <c r="J54" s="313"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="313"/>
       <c r="B55" s="313"/>
       <c r="C55" s="313"/>
@@ -10925,14 +11189,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="C56" s="310"/>
       <c r="D56" s="310"/>
       <c r="E56" s="310"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="310"/>
       <c r="B57" s="310"/>
       <c r="C57" s="310"/>
@@ -10948,6 +11212,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10964,70 +11292,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11039,7 +11303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11049,20 +11313,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11083,49 +11347,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="547"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="556" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="557"/>
-      <c r="G2" s="557"/>
-      <c r="H2" s="558"/>
-      <c r="I2" s="563" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="564"/>
-      <c r="K2" s="567">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="L2" s="568"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="559"/>
-      <c r="Q2" s="559"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="551"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="560" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="561"/>
-      <c r="G3" s="561"/>
-      <c r="H3" s="562"/>
-      <c r="I3" s="565"/>
-      <c r="J3" s="566"/>
-      <c r="K3" s="569"/>
-      <c r="L3" s="570"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11134,11 +11398,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="553"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="555"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11155,24 +11419,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="575"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="576"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11181,24 +11445,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="578"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="576"/>
-      <c r="J6" s="577"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11207,29 +11471,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="582"/>
-      <c r="D7" s="517">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="581" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="505">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11238,7 +11502,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11259,7 +11523,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="21" thickBot="1">
+    <row r="9" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11292,7 +11556,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="488" t="s">
         <v>25</v>
@@ -11325,7 +11589,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="489" t="s">
         <v>26</v>
@@ -11358,7 +11622,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="489" t="s">
         <v>2</v>
@@ -11391,7 +11655,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="489" t="s">
         <v>3</v>
@@ -11424,7 +11688,7 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="489" t="s">
         <v>27</v>
@@ -11457,7 +11721,7 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="489" t="s">
         <v>9</v>
@@ -11490,7 +11754,7 @@
       <c r="R15" s="331"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="489" t="s">
         <v>5</v>
@@ -11523,7 +11787,7 @@
       <c r="R16" s="331"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="489" t="s">
         <v>30</v>
@@ -11556,7 +11820,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="490" t="s">
         <v>32</v>
@@ -11589,7 +11853,7 @@
       <c r="R18" s="333"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="490" t="s">
         <v>33</v>
@@ -11622,7 +11886,7 @@
       <c r="R19" s="333"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="26.4">
+    <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="490" t="s">
         <v>140</v>
@@ -11651,7 +11915,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="26.4">
+    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="490" t="s">
         <v>141</v>
@@ -11680,7 +11944,7 @@
       <c r="R21" s="333"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="39.6">
+    <row r="22" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="490" t="s">
         <v>142</v>
@@ -11713,7 +11977,7 @@
       <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="39.6">
+    <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="490" t="s">
         <v>143</v>
@@ -11746,14 +12010,14 @@
       <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="14.4">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="586" t="s">
+      <c r="B24" s="562" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="587"/>
-      <c r="D24" s="587"/>
-      <c r="E24" s="588"/>
+      <c r="C24" s="563"/>
+      <c r="D24" s="563"/>
+      <c r="E24" s="564"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11773,14 +12037,14 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="571" t="s">
+      <c r="B25" s="547" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="572"/>
-      <c r="D25" s="572"/>
-      <c r="E25" s="573"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="548"/>
+      <c r="E25" s="549"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -11800,7 +12064,7 @@
       <c r="R25" s="335"/>
       <c r="S25" s="86"/>
     </row>
-    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="113"/>
@@ -11821,9 +12085,15 @@
       <c r="R26" s="115"/>
       <c r="S26" s="116"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11838,12 +12108,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11863,7 +12127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11873,20 +12137,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11907,52 +12171,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="589">
+      <c r="B2" s="596">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="559"/>
-      <c r="Q2" s="559"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11961,11 +12225,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11982,24 +12246,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12008,24 +12272,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12034,29 +12298,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12065,7 +12329,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12086,7 +12350,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12119,7 +12383,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12152,7 +12416,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -12185,7 +12449,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -12218,7 +12482,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12251,15 +12515,15 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="586" t="s">
+      <c r="B14" s="562" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="587"/>
-      <c r="D14" s="587"/>
-      <c r="E14" s="587"/>
-      <c r="F14" s="618"/>
+      <c r="C14" s="563"/>
+      <c r="D14" s="563"/>
+      <c r="E14" s="563"/>
+      <c r="F14" s="595"/>
       <c r="G14" s="56" t="s">
         <v>75</v>
       </c>
@@ -12276,14 +12540,14 @@
       <c r="R14" s="333"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="571" t="s">
+      <c r="B15" s="547" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="572"/>
-      <c r="D15" s="572"/>
-      <c r="E15" s="573"/>
+      <c r="C15" s="548"/>
+      <c r="D15" s="548"/>
+      <c r="E15" s="549"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12303,7 +12567,7 @@
       <c r="R15" s="335"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -12324,16 +12588,22 @@
       <c r="R16" s="115"/>
       <c r="S16" s="116"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="125"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12348,12 +12618,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12381,7 +12645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12391,20 +12655,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12425,49 +12689,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="547"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="556" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="557"/>
-      <c r="G2" s="557"/>
-      <c r="H2" s="558"/>
-      <c r="I2" s="563" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="564"/>
-      <c r="K2" s="567">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="568"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="559"/>
-      <c r="Q2" s="559"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="551"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="560" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="561"/>
-      <c r="G3" s="561"/>
-      <c r="H3" s="562"/>
-      <c r="I3" s="565"/>
-      <c r="J3" s="566"/>
-      <c r="K3" s="569"/>
-      <c r="L3" s="570"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12476,11 +12740,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="553"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="555"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12497,24 +12761,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="575"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="576"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12523,24 +12787,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="578"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="576"/>
-      <c r="J6" s="577"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12549,29 +12813,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="582"/>
-      <c r="D7" s="517">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="581" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="505">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12580,7 +12844,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12601,7 +12865,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12637,7 +12901,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12673,7 +12937,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12709,7 +12973,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12745,7 +13009,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12781,7 +13045,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12817,7 +13081,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12853,7 +13117,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12889,7 +13153,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="105" t="s">
         <v>32</v>
@@ -12925,7 +13189,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>33</v>
@@ -12961,7 +13225,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>34</v>
@@ -12997,7 +13261,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -13030,7 +13294,7 @@
       <c r="R20" s="335"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -13051,9 +13315,11 @@
       <c r="R21" s="115"/>
       <c r="S21" s="116"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -13070,8 +13336,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13093,7 +13357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13103,20 +13367,20 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13137,26 +13401,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="547"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="556" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="557"/>
-      <c r="G2" s="557"/>
-      <c r="H2" s="558"/>
-      <c r="I2" s="563" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="564"/>
-      <c r="K2" s="567">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="568"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13165,21 +13429,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="551"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="560" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="561"/>
-      <c r="G3" s="561"/>
-      <c r="H3" s="562"/>
-      <c r="I3" s="565"/>
-      <c r="J3" s="566"/>
-      <c r="K3" s="569"/>
-      <c r="L3" s="570"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13188,11 +13452,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="553"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="555"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13209,24 +13473,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="575"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="551"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="576"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="553"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13235,24 +13499,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="578"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="554"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="576"/>
-      <c r="J6" s="577"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="552"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13261,29 +13525,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="582"/>
-      <c r="D7" s="517">
+      <c r="C7" s="558"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="581" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="505">
+      <c r="J7" s="561"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13292,7 +13556,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13313,7 +13577,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13346,7 +13610,7 @@
       <c r="R9" s="337"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13379,7 +13643,7 @@
       <c r="R10" s="339"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13412,7 +13676,7 @@
       <c r="R11" s="339"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13445,7 +13709,7 @@
       <c r="R12" s="339"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13478,7 +13742,7 @@
       <c r="R13" s="339"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13511,7 +13775,7 @@
       <c r="R14" s="339"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13544,7 +13808,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13565,9 +13829,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13575,17 +13850,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13608,7 +13872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13621,20 +13885,20 @@
       <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13655,26 +13919,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="620"/>
       <c r="N2" s="621"/>
       <c r="O2" s="621"/>
@@ -13683,21 +13947,21 @@
       <c r="R2" s="622"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="623"/>
       <c r="N3" s="624"/>
       <c r="O3" s="624"/>
@@ -13706,11 +13970,11 @@
       <c r="R3" s="625"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13727,24 +13991,24 @@
       <c r="R4" s="625"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="623"/>
       <c r="N5" s="624"/>
       <c r="O5" s="624"/>
@@ -13753,24 +14017,24 @@
       <c r="R5" s="625"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="623"/>
       <c r="N6" s="624"/>
       <c r="O6" s="624"/>
@@ -13779,29 +14043,29 @@
       <c r="R6" s="625"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="623"/>
       <c r="N7" s="624"/>
       <c r="O7" s="624"/>
@@ -13810,7 +14074,7 @@
       <c r="R7" s="625"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13831,7 +14095,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -13864,7 +14128,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13897,7 +14161,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="202" t="s">
         <v>26</v>
@@ -13930,7 +14194,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="202" t="s">
         <v>2</v>
@@ -13963,7 +14227,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="202" t="s">
         <v>3</v>
@@ -13996,7 +14260,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -14029,7 +14293,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -14062,7 +14326,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -14095,7 +14359,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -14128,7 +14392,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -14161,7 +14425,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -14194,7 +14458,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>149</v>
@@ -14227,14 +14491,14 @@
       <c r="R20" s="108"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="571" t="s">
+      <c r="B21" s="547" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="572"/>
-      <c r="D21" s="572"/>
-      <c r="E21" s="573"/>
+      <c r="C21" s="548"/>
+      <c r="D21" s="548"/>
+      <c r="E21" s="549"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14254,7 +14518,7 @@
       <c r="R21" s="111"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -14275,18 +14539,11 @@
       <c r="R22" s="115"/>
       <c r="S22" s="116"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14299,6 +14556,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14318,7 +14582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14328,19 +14592,19 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14361,26 +14625,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="596"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="605" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="607"/>
+      <c r="I2" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="612"/>
+      <c r="K2" s="615">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="616"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14389,21 +14653,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="599"/>
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="608" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="609"/>
+      <c r="H3" s="610"/>
+      <c r="I3" s="613"/>
+      <c r="J3" s="614"/>
+      <c r="K3" s="617"/>
+      <c r="L3" s="618"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14412,11 +14676,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="603"/>
+      <c r="D4" s="604"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14433,24 +14697,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="574" t="s">
+      <c r="B5" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="612"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14459,24 +14723,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="574" t="s">
+      <c r="B6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="612"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="579"/>
-      <c r="F6" s="579"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="613"/>
-      <c r="J6" s="614"/>
-      <c r="K6" s="615"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14485,29 +14749,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="517">
+      <c r="C7" s="593"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="F7" s="583"/>
-      <c r="G7" s="583"/>
-      <c r="H7" s="584"/>
-      <c r="I7" s="617" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="616"/>
-      <c r="K7" s="505">
+      <c r="J7" s="593"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14516,7 +14780,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14537,7 +14801,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -14570,7 +14834,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="131" t="s">
         <v>26</v>
@@ -14603,7 +14867,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="131" t="s">
         <v>2</v>
@@ -14636,7 +14900,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -14669,7 +14933,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="131" t="s">
         <v>27</v>
@@ -14702,7 +14966,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="131" t="s">
         <v>9</v>
@@ -14735,7 +14999,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="131" t="s">
         <v>5</v>
@@ -14768,14 +15032,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="571" t="s">
+      <c r="B16" s="547" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="572"/>
-      <c r="D16" s="572"/>
-      <c r="E16" s="573"/>
+      <c r="C16" s="548"/>
+      <c r="D16" s="548"/>
+      <c r="E16" s="549"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14795,7 +15059,7 @@
       <c r="R16" s="124"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112"/>
       <c r="B17" s="130"/>
       <c r="C17" s="129"/>
@@ -14816,20 +15080,11 @@
       <c r="R17" s="115"/>
       <c r="S17" s="116"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14840,6 +15095,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2б-500-1 (Штофф Колоски)/XXI-В-28-2б-500-1 (Штофф Колоски) от 06.11.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2б-500-1 (Штофф Колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E70DA9-DC73-4C8E-85C7-CA9A9B1173A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DD10A-2638-4F01-926E-A1895434BE88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3541,8 +3541,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3635,6 +3633,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3679,11 +3683,77 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3694,77 +3764,77 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3816,76 +3886,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3909,75 +3976,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4004,6 +4002,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4014,9 +4015,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4034,6 +4032,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6550,8 +6554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6572,11 +6576,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="392"/>
-      <c r="B1" s="484" t="s">
+      <c r="B1" s="482" t="s">
         <v>136</v>
       </c>
       <c r="C1" s="392"/>
-      <c r="D1" s="485" t="str">
+      <c r="D1" s="483" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
@@ -6606,17 +6610,17 @@
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="494" t="s">
+      <c r="A3" s="492" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="494"/>
-      <c r="I3" s="494"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="492"/>
+      <c r="I3" s="492"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -6643,7 +6647,7 @@
       <c r="C5" s="400" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="481" t="s">
+      <c r="D5" s="479" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="400" t="s">
@@ -6667,7 +6671,7 @@
       <c r="A6" s="403">
         <v>1</v>
       </c>
-      <c r="B6" s="477" t="str">
+      <c r="B6" s="475" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -6679,13 +6683,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="404">
-        <f>Данные!$B14</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="405"/>
       <c r="G6" s="404">
         <f>E6-F6</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="406"/>
       <c r="I6" s="407"/>
@@ -6710,13 +6713,12 @@
         <v>20</v>
       </c>
       <c r="E7" s="410">
-        <f>Данные!$B15</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="391"/>
       <c r="G7" s="410">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="411"/>
       <c r="I7" s="407"/>
@@ -7012,15 +7014,15 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="478" t="str">
+      <c r="B17" s="476" t="str">
         <f>Данные!A25</f>
         <v>Дутьевая головка</v>
       </c>
-      <c r="C17" s="480" t="str">
+      <c r="C17" s="478" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="D17" s="482">
+      <c r="D17" s="480">
         <v>18</v>
       </c>
       <c r="E17" s="418">
@@ -7040,9 +7042,9 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
-      <c r="B18" s="479"/>
+      <c r="B18" s="477"/>
       <c r="C18" s="395"/>
-      <c r="D18" s="483"/>
+      <c r="D18" s="481"/>
       <c r="E18" s="395"/>
       <c r="F18" s="395"/>
       <c r="G18" s="395"/>
@@ -7101,7 +7103,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="428">
         <f>E6*700000</f>
-        <v>13300000</v>
+        <v>14000000</v>
       </c>
       <c r="B21" s="429">
         <v>43783</v>
@@ -7109,7 +7111,7 @@
       <c r="C21" s="430">
         <v>43786</v>
       </c>
-      <c r="D21" s="491">
+      <c r="D21" s="489">
         <v>43789</v>
       </c>
       <c r="E21" s="431">
@@ -7120,15 +7122,15 @@
       </c>
       <c r="G21" s="432">
         <f>F21/A$21</f>
-        <v>4.3416015037593986E-2</v>
+        <v>4.1245214285714288E-2</v>
       </c>
       <c r="H21" s="433">
         <f>A21-F21</f>
-        <v>12722567</v>
+        <v>13422567</v>
       </c>
       <c r="I21" s="434">
         <f>1-G21</f>
-        <v>0.95658398496240604</v>
+        <v>0.95875478571428574</v>
       </c>
       <c r="J21" s="435"/>
       <c r="K21" s="413"/>
@@ -7136,22 +7138,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="436"/>
-      <c r="B22" s="437"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="438"/>
-      <c r="F22" s="438"/>
+      <c r="B22" s="437">
+        <v>44228</v>
+      </c>
+      <c r="C22" s="437">
+        <v>44229</v>
+      </c>
+      <c r="D22" s="437">
+        <v>44256</v>
+      </c>
+      <c r="E22" s="438">
+        <v>270270</v>
+      </c>
+      <c r="F22" s="438">
+        <v>295974</v>
+      </c>
       <c r="G22" s="432">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>2.1141E-2</v>
       </c>
       <c r="H22" s="439">
         <f>H21-F22</f>
-        <v>12722567</v>
+        <v>13126593</v>
       </c>
       <c r="I22" s="440">
         <f>I21-G22</f>
-        <v>0.95658398496240604</v>
+        <v>0.93761378571428577</v>
       </c>
       <c r="J22" s="395"/>
       <c r="K22" s="395"/>
@@ -7360,29 +7372,29 @@
       <c r="B37" s="460"/>
       <c r="C37" s="460"/>
       <c r="D37" s="461"/>
-      <c r="E37" s="462">
+      <c r="E37" s="636">
         <f>SUM(E21:E36)</f>
-        <v>491400</v>
-      </c>
-      <c r="F37" s="463">
+        <v>761670</v>
+      </c>
+      <c r="F37" s="637">
         <f>SUM(F21:F36)</f>
-        <v>577433</v>
-      </c>
-      <c r="G37" s="464">
+        <v>873407</v>
+      </c>
+      <c r="G37" s="462">
         <f>SUM(G21:G36)</f>
-        <v>4.3416015037593986E-2</v>
-      </c>
-      <c r="H37" s="465">
+        <v>6.2386214285714288E-2</v>
+      </c>
+      <c r="H37" s="463">
         <f>A21-F37</f>
-        <v>12722567</v>
-      </c>
-      <c r="I37" s="466">
+        <v>13126593</v>
+      </c>
+      <c r="I37" s="464">
         <f>1-G37</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="J37" s="467"/>
-      <c r="K37" s="467"/>
-      <c r="L37" s="467"/>
+        <v>0.93761378571428566</v>
+      </c>
+      <c r="J37" s="465"/>
+      <c r="K37" s="465"/>
+      <c r="L37" s="465"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="395"/>
@@ -7397,12 +7409,12 @@
       <c r="J40" s="395"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="495" t="s">
+      <c r="A41" s="493" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="495"/>
-      <c r="C41" s="495"/>
-      <c r="D41" s="495"/>
+      <c r="B41" s="493"/>
+      <c r="C41" s="493"/>
+      <c r="D41" s="493"/>
       <c r="E41" s="395"/>
       <c r="F41" s="395"/>
       <c r="G41" s="395"/>
@@ -7411,14 +7423,14 @@
       <c r="J41" s="395"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="496" t="s">
+      <c r="A42" s="494" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="496"/>
-      <c r="C42" s="468" t="s">
+      <c r="B42" s="494"/>
+      <c r="C42" s="466" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="468" t="s">
+      <c r="D42" s="466" t="s">
         <v>132</v>
       </c>
       <c r="E42" s="395"/>
@@ -7429,27 +7441,27 @@
       <c r="J42" s="395"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="492">
+      <c r="A43" s="490">
         <f>A21-F37</f>
-        <v>12722567</v>
-      </c>
-      <c r="B43" s="493"/>
-      <c r="C43" s="469">
+        <v>13126593</v>
+      </c>
+      <c r="B43" s="491"/>
+      <c r="C43" s="467">
         <f>1-G37</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="D43" s="470">
+        <v>0.93761378571428566</v>
+      </c>
+      <c r="D43" s="468">
         <f>(C43/0.8)*100</f>
-        <v>119.57299812030075</v>
-      </c>
-      <c r="E43" s="471" t="s">
+        <v>117.20172321428571</v>
+      </c>
+      <c r="E43" s="469" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="471"/>
-      <c r="G43" s="471"/>
-      <c r="H43" s="471"/>
-      <c r="I43" s="471"/>
-      <c r="J43" s="471"/>
+      <c r="F43" s="469"/>
+      <c r="G43" s="469"/>
+      <c r="H43" s="469"/>
+      <c r="I43" s="469"/>
+      <c r="J43" s="469"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="395"/>
@@ -7476,8 +7488,8 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="395"/>
-      <c r="B46" s="472"/>
-      <c r="C46" s="472"/>
+      <c r="B46" s="470"/>
+      <c r="C46" s="470"/>
       <c r="D46" s="395"/>
       <c r="E46" s="395"/>
       <c r="F46" s="395"/>
@@ -7487,113 +7499,113 @@
       <c r="J46" s="395"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="473"/>
-      <c r="B47" s="473"/>
-      <c r="C47" s="473"/>
-      <c r="D47" s="473"/>
-      <c r="E47" s="473"/>
-      <c r="F47" s="473"/>
-      <c r="G47" s="473"/>
-      <c r="H47" s="473"/>
-      <c r="I47" s="497"/>
-      <c r="J47" s="498"/>
+      <c r="A47" s="471"/>
+      <c r="B47" s="471"/>
+      <c r="C47" s="471"/>
+      <c r="D47" s="471"/>
+      <c r="E47" s="471"/>
+      <c r="F47" s="471"/>
+      <c r="G47" s="471"/>
+      <c r="H47" s="471"/>
+      <c r="I47" s="495"/>
+      <c r="J47" s="496"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="474"/>
-      <c r="B48" s="475"/>
-      <c r="C48" s="475"/>
+      <c r="A48" s="472"/>
+      <c r="B48" s="473"/>
+      <c r="C48" s="473"/>
       <c r="D48" s="395"/>
       <c r="E48" s="395"/>
-      <c r="F48" s="475"/>
+      <c r="F48" s="473"/>
       <c r="G48" s="421"/>
-      <c r="H48" s="475"/>
+      <c r="H48" s="473"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="474"/>
-      <c r="B49" s="475"/>
-      <c r="C49" s="475"/>
-      <c r="D49" s="475"/>
-      <c r="E49" s="475"/>
-      <c r="F49" s="475"/>
+      <c r="A49" s="472"/>
+      <c r="B49" s="473"/>
+      <c r="C49" s="473"/>
+      <c r="D49" s="473"/>
+      <c r="E49" s="473"/>
+      <c r="F49" s="473"/>
       <c r="G49" s="421"/>
-      <c r="H49" s="475"/>
+      <c r="H49" s="473"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="474"/>
-      <c r="B50" s="475"/>
-      <c r="C50" s="475"/>
+      <c r="A50" s="472"/>
+      <c r="B50" s="473"/>
+      <c r="C50" s="473"/>
       <c r="D50" s="395"/>
       <c r="E50" s="395"/>
-      <c r="F50" s="475"/>
+      <c r="F50" s="473"/>
       <c r="G50" s="421"/>
-      <c r="H50" s="475"/>
+      <c r="H50" s="473"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="474"/>
-      <c r="B51" s="475"/>
-      <c r="C51" s="475"/>
-      <c r="D51" s="475"/>
-      <c r="E51" s="475"/>
-      <c r="F51" s="475"/>
+      <c r="A51" s="472"/>
+      <c r="B51" s="473"/>
+      <c r="C51" s="473"/>
+      <c r="D51" s="473"/>
+      <c r="E51" s="473"/>
+      <c r="F51" s="473"/>
       <c r="G51" s="421"/>
-      <c r="H51" s="475"/>
+      <c r="H51" s="473"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="474"/>
-      <c r="B52" s="475"/>
-      <c r="C52" s="475"/>
+      <c r="A52" s="472"/>
+      <c r="B52" s="473"/>
+      <c r="C52" s="473"/>
       <c r="D52" s="395"/>
       <c r="E52" s="395"/>
-      <c r="F52" s="475"/>
+      <c r="F52" s="473"/>
       <c r="G52" s="421"/>
-      <c r="H52" s="475"/>
+      <c r="H52" s="473"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="474"/>
-      <c r="B53" s="475"/>
+      <c r="A53" s="472"/>
+      <c r="B53" s="473"/>
       <c r="C53" s="413"/>
-      <c r="D53" s="476"/>
-      <c r="E53" s="476"/>
+      <c r="D53" s="474"/>
+      <c r="E53" s="474"/>
       <c r="F53" s="413"/>
       <c r="G53" s="413"/>
       <c r="H53" s="413"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="474"/>
-      <c r="B54" s="475"/>
-      <c r="C54" s="475"/>
-      <c r="D54" s="475"/>
-      <c r="E54" s="475"/>
-      <c r="F54" s="475"/>
+      <c r="A54" s="472"/>
+      <c r="B54" s="473"/>
+      <c r="C54" s="473"/>
+      <c r="D54" s="473"/>
+      <c r="E54" s="473"/>
+      <c r="F54" s="473"/>
       <c r="G54" s="421"/>
-      <c r="H54" s="475"/>
+      <c r="H54" s="473"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="474"/>
-      <c r="B55" s="475"/>
-      <c r="C55" s="475"/>
-      <c r="D55" s="475"/>
-      <c r="E55" s="475"/>
-      <c r="F55" s="475"/>
+      <c r="A55" s="472"/>
+      <c r="B55" s="473"/>
+      <c r="C55" s="473"/>
+      <c r="D55" s="473"/>
+      <c r="E55" s="473"/>
+      <c r="F55" s="473"/>
       <c r="G55" s="421"/>
-      <c r="H55" s="475"/>
+      <c r="H55" s="473"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="474"/>
-      <c r="B56" s="475"/>
-      <c r="C56" s="475"/>
+      <c r="A56" s="472"/>
+      <c r="B56" s="473"/>
+      <c r="C56" s="473"/>
       <c r="D56" s="395"/>
       <c r="E56" s="395"/>
-      <c r="F56" s="475"/>
+      <c r="F56" s="473"/>
       <c r="G56" s="421"/>
-      <c r="H56" s="475"/>
+      <c r="H56" s="473"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="395"/>
-      <c r="B57" s="499"/>
-      <c r="C57" s="499"/>
-      <c r="D57" s="500"/>
-      <c r="E57" s="471"/>
+      <c r="B57" s="497"/>
+      <c r="C57" s="497"/>
+      <c r="D57" s="498"/>
+      <c r="E57" s="469"/>
       <c r="F57" s="395"/>
       <c r="G57" s="395"/>
       <c r="H57" s="395"/>
@@ -7601,31 +7613,31 @@
       <c r="J57" s="395"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="473"/>
-      <c r="B58" s="473"/>
-      <c r="C58" s="473"/>
-      <c r="D58" s="473"/>
-      <c r="E58" s="473"/>
-      <c r="F58" s="473"/>
-      <c r="G58" s="473"/>
-      <c r="H58" s="473"/>
-      <c r="I58" s="497"/>
-      <c r="J58" s="498"/>
+      <c r="A58" s="471"/>
+      <c r="B58" s="471"/>
+      <c r="C58" s="471"/>
+      <c r="D58" s="471"/>
+      <c r="E58" s="471"/>
+      <c r="F58" s="471"/>
+      <c r="G58" s="471"/>
+      <c r="H58" s="471"/>
+      <c r="I58" s="495"/>
+      <c r="J58" s="496"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="474"/>
+      <c r="A59" s="472"/>
       <c r="B59" s="395"/>
       <c r="C59" s="395"/>
       <c r="D59" s="395"/>
       <c r="E59" s="395"/>
       <c r="F59" s="421"/>
       <c r="G59" s="421"/>
-      <c r="H59" s="475"/>
-      <c r="I59" s="501"/>
-      <c r="J59" s="501"/>
+      <c r="H59" s="473"/>
+      <c r="I59" s="499"/>
+      <c r="J59" s="499"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="474"/>
+      <c r="A60" s="472"/>
       <c r="B60" s="395"/>
       <c r="C60" s="395"/>
       <c r="D60" s="413"/>
@@ -7633,8 +7645,8 @@
       <c r="F60" s="413"/>
       <c r="G60" s="413"/>
       <c r="H60" s="413"/>
-      <c r="I60" s="501"/>
-      <c r="J60" s="501"/>
+      <c r="I60" s="499"/>
+      <c r="J60" s="499"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="395"/>
@@ -7647,12 +7659,12 @@
       <c r="H61" s="395"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="497"/>
-      <c r="C66" s="498"/>
+      <c r="B66" s="495"/>
+      <c r="C66" s="496"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="497"/>
-      <c r="C73" s="498"/>
+      <c r="B73" s="495"/>
+      <c r="C73" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7723,47 +7735,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7774,9 +7786,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7795,10 +7807,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7807,9 +7819,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
@@ -7821,21 +7833,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
@@ -7847,22 +7859,22 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8253,6 +8265,17 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8260,17 +8283,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8336,47 +8348,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8387,9 +8399,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8408,10 +8420,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8420,9 +8432,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
@@ -8434,21 +8446,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
@@ -8460,22 +8472,22 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8809,12 +8821,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="628" t="s">
+      <c r="B18" s="627" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="629"/>
-      <c r="D18" s="629"/>
-      <c r="E18" s="630"/>
+      <c r="C18" s="628"/>
+      <c r="D18" s="628"/>
+      <c r="E18" s="629"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8858,14 +8870,6 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8877,6 +8881,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8962,47 +8974,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -9013,9 +9025,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9034,10 +9046,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -9046,9 +9058,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
@@ -9060,21 +9072,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
@@ -9086,22 +9098,22 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -9487,6 +9499,17 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9494,17 +9517,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9570,47 +9582,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="634">
+      <c r="J2" s="603"/>
+      <c r="K2" s="632">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="L2" s="635"/>
+      <c r="L2" s="633"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="636"/>
-      <c r="L3" s="637"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="634"/>
+      <c r="L3" s="635"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9621,9 +9633,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9642,10 +9654,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -9654,9 +9666,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
@@ -9668,21 +9680,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
@@ -9694,22 +9706,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -9987,6 +9999,8 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -10003,8 +10017,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10129,28 +10141,28 @@
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="518" t="s">
+      <c r="F11" s="500" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="519"/>
+      <c r="K11" s="501"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="518" t="s">
+      <c r="F12" s="500" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="518"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="519" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="519"/>
+      <c r="K12" s="501"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
@@ -10162,16 +10174,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="518" t="s">
+      <c r="F13" s="500" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="518"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="519" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="519"/>
+      <c r="K13" s="501"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
@@ -10336,12 +10348,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -10351,6 +10357,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10428,47 +10440,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="543" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="543"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="543"/>
+      <c r="E11" s="543"/>
+      <c r="F11" s="543"/>
+      <c r="G11" s="543"/>
+      <c r="H11" s="543"/>
+      <c r="I11" s="543"/>
+      <c r="J11" s="543"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="542" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="542"/>
+      <c r="C12" s="542"/>
+      <c r="D12" s="542"/>
+      <c r="E12" s="542"/>
+      <c r="F12" s="542"/>
+      <c r="G12" s="542"/>
+      <c r="H12" s="542"/>
+      <c r="I12" s="542"/>
+      <c r="J12" s="542"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="544" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
+      <c r="B13" s="543"/>
+      <c r="C13" s="543"/>
+      <c r="D13" s="543"/>
+      <c r="E13" s="543"/>
+      <c r="F13" s="543"/>
+      <c r="G13" s="543"/>
+      <c r="H13" s="543"/>
+      <c r="I13" s="543"/>
+      <c r="J13" s="543"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
@@ -10593,497 +10605,497 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="540" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="540" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="540"/>
+      <c r="D22" s="540"/>
+      <c r="E22" s="540" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="540"/>
+      <c r="G22" s="541" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="540" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="540"/>
+      <c r="J22" s="540"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="540"/>
+      <c r="B23" s="540"/>
+      <c r="C23" s="540"/>
+      <c r="D23" s="540"/>
+      <c r="E23" s="540"/>
+      <c r="F23" s="540"/>
+      <c r="G23" s="541"/>
+      <c r="H23" s="540"/>
+      <c r="I23" s="540"/>
+      <c r="J23" s="540"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="518">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="520" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="521"/>
+      <c r="D24" s="522"/>
+      <c r="E24" s="523" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="524"/>
+      <c r="G24" s="527">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="H24" s="535" t="s">
+      <c r="H24" s="538" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="I24" s="530"/>
+      <c r="J24" s="531"/>
     </row>
     <row r="25" spans="1:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="A25" s="519"/>
+      <c r="B25" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="536"/>
+      <c r="D25" s="537"/>
+      <c r="E25" s="539"/>
+      <c r="F25" s="526"/>
+      <c r="G25" s="528"/>
+      <c r="H25" s="532"/>
+      <c r="I25" s="533"/>
+      <c r="J25" s="534"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="518">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="541" t="s">
+      <c r="B26" s="520" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="542"/>
-      <c r="D26" s="543"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="521"/>
+      <c r="D26" s="522"/>
+      <c r="E26" s="523" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="524"/>
+      <c r="G26" s="527">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="H26" s="535" t="s">
+      <c r="H26" s="538" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="I26" s="530"/>
+      <c r="J26" s="531"/>
     </row>
     <row r="27" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="A27" s="519"/>
+      <c r="B27" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="536"/>
+      <c r="D27" s="537"/>
+      <c r="E27" s="539"/>
+      <c r="F27" s="526"/>
+      <c r="G27" s="528"/>
+      <c r="H27" s="532"/>
+      <c r="I27" s="533"/>
+      <c r="J27" s="534"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="518">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="541" t="s">
+      <c r="B28" s="520" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="542"/>
-      <c r="D28" s="543"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="521"/>
+      <c r="D28" s="522"/>
+      <c r="E28" s="523" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="524"/>
+      <c r="G28" s="527">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="545"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="529"/>
+      <c r="I28" s="530"/>
+      <c r="J28" s="531"/>
     </row>
     <row r="29" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+      <c r="A29" s="519"/>
+      <c r="B29" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="536"/>
+      <c r="D29" s="537"/>
+      <c r="E29" s="539"/>
+      <c r="F29" s="526"/>
+      <c r="G29" s="528"/>
+      <c r="H29" s="532"/>
+      <c r="I29" s="533"/>
+      <c r="J29" s="534"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="518">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="541" t="s">
+      <c r="B30" s="520" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="542"/>
-      <c r="D30" s="543"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="521"/>
+      <c r="D30" s="522"/>
+      <c r="E30" s="523" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="524"/>
+      <c r="G30" s="527">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="545"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="529"/>
+      <c r="I30" s="530"/>
+      <c r="J30" s="531"/>
     </row>
     <row r="31" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="A31" s="519"/>
+      <c r="B31" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="546"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="536"/>
+      <c r="D31" s="537"/>
+      <c r="E31" s="525"/>
+      <c r="F31" s="526"/>
+      <c r="G31" s="528"/>
+      <c r="H31" s="532"/>
+      <c r="I31" s="533"/>
+      <c r="J31" s="534"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="518">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="541" t="s">
+      <c r="B32" s="520" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="542"/>
-      <c r="D32" s="543"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="521"/>
+      <c r="D32" s="522"/>
+      <c r="E32" s="523" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="524"/>
+      <c r="G32" s="527">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="545"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="529"/>
+      <c r="I32" s="530"/>
+      <c r="J32" s="531"/>
     </row>
     <row r="33" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+      <c r="A33" s="519"/>
+      <c r="B33" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="546"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="536"/>
+      <c r="D33" s="537"/>
+      <c r="E33" s="525"/>
+      <c r="F33" s="526"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="532"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="534"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="518">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="541" t="s">
+      <c r="B34" s="520" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="542"/>
-      <c r="D34" s="543"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="521"/>
+      <c r="D34" s="522"/>
+      <c r="E34" s="523" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="524"/>
+      <c r="G34" s="527">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="545"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="529"/>
+      <c r="I34" s="530"/>
+      <c r="J34" s="531"/>
     </row>
     <row r="35" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+      <c r="A35" s="519"/>
+      <c r="B35" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="546"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="536"/>
+      <c r="D35" s="537"/>
+      <c r="E35" s="525"/>
+      <c r="F35" s="526"/>
+      <c r="G35" s="528"/>
+      <c r="H35" s="532"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="534"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="518">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="541" t="s">
+      <c r="B36" s="520" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="542"/>
-      <c r="D36" s="543"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="521"/>
+      <c r="D36" s="522"/>
+      <c r="E36" s="523" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="524"/>
+      <c r="G36" s="527">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="545"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="529"/>
+      <c r="I36" s="530"/>
+      <c r="J36" s="531"/>
     </row>
     <row r="37" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="528"/>
-      <c r="B37" s="523" t="str">
+      <c r="A37" s="519"/>
+      <c r="B37" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="546"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="536"/>
+      <c r="D37" s="537"/>
+      <c r="E37" s="525"/>
+      <c r="F37" s="526"/>
+      <c r="G37" s="528"/>
+      <c r="H37" s="532"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="534"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="518">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="541" t="s">
+      <c r="B38" s="520" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="542"/>
-      <c r="D38" s="543"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="521"/>
+      <c r="D38" s="522"/>
+      <c r="E38" s="523" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="524"/>
+      <c r="G38" s="527">
         <f>Данные!B21</f>
         <v>18</v>
       </c>
-      <c r="H38" s="545"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="529"/>
+      <c r="I38" s="530"/>
+      <c r="J38" s="531"/>
     </row>
     <row r="39" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528"/>
-      <c r="B39" s="523" t="str">
+      <c r="A39" s="519"/>
+      <c r="B39" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="546"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="536"/>
+      <c r="D39" s="537"/>
+      <c r="E39" s="525"/>
+      <c r="F39" s="526"/>
+      <c r="G39" s="528"/>
+      <c r="H39" s="532"/>
+      <c r="I39" s="533"/>
+      <c r="J39" s="534"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="518">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="541" t="s">
+      <c r="B40" s="520" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="542"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="521"/>
+      <c r="D40" s="522"/>
+      <c r="E40" s="523" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="524"/>
+      <c r="G40" s="527">
         <f>Данные!B23</f>
         <v>16</v>
       </c>
-      <c r="H40" s="545"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="529"/>
+      <c r="I40" s="530"/>
+      <c r="J40" s="531"/>
     </row>
     <row r="41" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="A41" s="519"/>
+      <c r="B41" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="546"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="536"/>
+      <c r="D41" s="537"/>
+      <c r="E41" s="525"/>
+      <c r="F41" s="526"/>
+      <c r="G41" s="528"/>
+      <c r="H41" s="532"/>
+      <c r="I41" s="533"/>
+      <c r="J41" s="534"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="518">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="541" t="s">
+      <c r="B42" s="520" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="542"/>
-      <c r="D42" s="543"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="521"/>
+      <c r="D42" s="522"/>
+      <c r="E42" s="523" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="524"/>
+      <c r="G42" s="527">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="545"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="529"/>
+      <c r="I42" s="530"/>
+      <c r="J42" s="531"/>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+      <c r="A43" s="519"/>
+      <c r="B43" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="546"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="536"/>
+      <c r="D43" s="537"/>
+      <c r="E43" s="525"/>
+      <c r="F43" s="526"/>
+      <c r="G43" s="528"/>
+      <c r="H43" s="532"/>
+      <c r="I43" s="533"/>
+      <c r="J43" s="534"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="518">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="541" t="s">
+      <c r="B44" s="520" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="542"/>
-      <c r="D44" s="543"/>
-      <c r="E44" s="529">
+      <c r="C44" s="521"/>
+      <c r="D44" s="522"/>
+      <c r="E44" s="523">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="524"/>
+      <c r="G44" s="527">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="545"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="529"/>
+      <c r="I44" s="530"/>
+      <c r="J44" s="531"/>
     </row>
     <row r="45" spans="1:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+      <c r="A45" s="519"/>
+      <c r="B45" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="546"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="536"/>
+      <c r="D45" s="537"/>
+      <c r="E45" s="525"/>
+      <c r="F45" s="526"/>
+      <c r="G45" s="528"/>
+      <c r="H45" s="532"/>
+      <c r="I45" s="533"/>
+      <c r="J45" s="534"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="518">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="541" t="s">
+      <c r="B46" s="520" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="542"/>
-      <c r="D46" s="543"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="521"/>
+      <c r="D46" s="522"/>
+      <c r="E46" s="523" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-28-2б-500-1</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="524"/>
+      <c r="G46" s="527">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="545"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="529"/>
+      <c r="I46" s="530"/>
+      <c r="J46" s="531"/>
     </row>
     <row r="47" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="A47" s="519"/>
+      <c r="B47" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2б-500-1 Штофф Колоски)</v>
       </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="546"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="536"/>
+      <c r="D47" s="537"/>
+      <c r="E47" s="525"/>
+      <c r="F47" s="526"/>
+      <c r="G47" s="528"/>
+      <c r="H47" s="532"/>
+      <c r="I47" s="533"/>
+      <c r="J47" s="534"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
@@ -11212,70 +11224,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11292,6 +11240,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11349,47 +11361,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="545"/>
+      <c r="C2" s="546"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="554" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="561" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="562"/>
+      <c r="K2" s="565">
         <f>Данные!B14</f>
         <v>19</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="566"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="557"/>
+      <c r="Q2" s="557"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="548"/>
+      <c r="C3" s="549"/>
+      <c r="D3" s="550"/>
+      <c r="E3" s="558" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="559"/>
+      <c r="G3" s="559"/>
+      <c r="H3" s="560"/>
+      <c r="I3" s="563"/>
+      <c r="J3" s="564"/>
+      <c r="K3" s="567"/>
+      <c r="L3" s="568"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11400,9 +11412,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="551"/>
+      <c r="C4" s="552"/>
+      <c r="D4" s="553"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11421,10 +11433,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
+      <c r="C5" s="573"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11433,8 +11445,8 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
       <c r="K5" s="513"/>
       <c r="L5" s="514"/>
       <c r="M5" s="74"/>
@@ -11447,20 +11459,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
+      <c r="C6" s="576"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
       <c r="K6" s="513"/>
       <c r="L6" s="514"/>
       <c r="M6" s="74"/>
@@ -11473,22 +11485,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
+      <c r="C7" s="580"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
+      <c r="J7" s="583"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -11558,7 +11570,7 @@
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
-      <c r="B10" s="488" t="s">
+      <c r="B10" s="486" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="93">
@@ -11591,7 +11603,7 @@
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
-      <c r="B11" s="489" t="s">
+      <c r="B11" s="487" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="324">
@@ -11624,7 +11636,7 @@
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
-      <c r="B12" s="489" t="s">
+      <c r="B12" s="487" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="98">
@@ -11657,7 +11669,7 @@
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
-      <c r="B13" s="489" t="s">
+      <c r="B13" s="487" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="324">
@@ -11690,7 +11702,7 @@
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="489" t="s">
+      <c r="B14" s="487" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="324">
@@ -11723,7 +11735,7 @@
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="489" t="s">
+      <c r="B15" s="487" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="388">
@@ -11756,7 +11768,7 @@
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
-      <c r="B16" s="489" t="s">
+      <c r="B16" s="487" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="98">
@@ -11789,7 +11801,7 @@
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
-      <c r="B17" s="489" t="s">
+      <c r="B17" s="487" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="324">
@@ -11804,7 +11816,7 @@
       <c r="F17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="486" t="s">
+      <c r="G17" s="484" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="99"/>
@@ -11822,7 +11834,7 @@
     </row>
     <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
-      <c r="B18" s="490" t="s">
+      <c r="B18" s="488" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="106" t="s">
@@ -11855,7 +11867,7 @@
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
-      <c r="B19" s="490" t="s">
+      <c r="B19" s="488" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="106">
@@ -11888,7 +11900,7 @@
     </row>
     <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
-      <c r="B20" s="490" t="s">
+      <c r="B20" s="488" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="106" t="s">
@@ -11917,7 +11929,7 @@
     </row>
     <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
-      <c r="B21" s="490" t="s">
+      <c r="B21" s="488" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="106" t="s">
@@ -11946,7 +11958,7 @@
     </row>
     <row r="22" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
-      <c r="B22" s="490" t="s">
+      <c r="B22" s="488" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="325">
@@ -11979,7 +11991,7 @@
     </row>
     <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="490" t="s">
+      <c r="B23" s="488" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="325" t="s">
@@ -12012,12 +12024,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="562" t="s">
+      <c r="B24" s="584" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="563"/>
-      <c r="D24" s="563"/>
-      <c r="E24" s="564"/>
+      <c r="C24" s="585"/>
+      <c r="D24" s="585"/>
+      <c r="E24" s="586"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12039,16 +12051,16 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="547" t="s">
+      <c r="B25" s="569" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="548"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
+      <c r="C25" s="570"/>
+      <c r="D25" s="570"/>
+      <c r="E25" s="571"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="487" t="s">
+      <c r="G25" s="485" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="109"/>
@@ -12088,12 +12100,6 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12108,6 +12114,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12173,50 +12185,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="596">
+      <c r="B2" s="587">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B15</f>
         <v>19</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="557"/>
+      <c r="Q2" s="557"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12227,9 +12239,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12248,10 +12260,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12260,9 +12272,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -12274,21 +12286,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -12300,22 +12312,22 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12517,13 +12529,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="562" t="s">
+      <c r="B14" s="584" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="563"/>
-      <c r="D14" s="563"/>
-      <c r="E14" s="563"/>
-      <c r="F14" s="595"/>
+      <c r="C14" s="585"/>
+      <c r="D14" s="585"/>
+      <c r="E14" s="585"/>
+      <c r="F14" s="616"/>
       <c r="G14" s="56" t="s">
         <v>75</v>
       </c>
@@ -12542,12 +12554,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="547" t="s">
+      <c r="B15" s="569" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="548"/>
-      <c r="D15" s="548"/>
-      <c r="E15" s="549"/>
+      <c r="C15" s="570"/>
+      <c r="D15" s="570"/>
+      <c r="E15" s="571"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12598,12 +12610,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12618,6 +12624,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12691,47 +12703,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="545"/>
+      <c r="C2" s="546"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="554" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="561" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="562"/>
+      <c r="K2" s="565">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="566"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="557"/>
+      <c r="Q2" s="557"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="548"/>
+      <c r="C3" s="549"/>
+      <c r="D3" s="550"/>
+      <c r="E3" s="558" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="559"/>
+      <c r="G3" s="559"/>
+      <c r="H3" s="560"/>
+      <c r="I3" s="563"/>
+      <c r="J3" s="564"/>
+      <c r="K3" s="567"/>
+      <c r="L3" s="568"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12742,9 +12754,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="551"/>
+      <c r="C4" s="552"/>
+      <c r="D4" s="553"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12763,10 +12775,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
+      <c r="C5" s="573"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12775,8 +12787,8 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
       <c r="K5" s="513"/>
       <c r="L5" s="514"/>
       <c r="M5" s="74"/>
@@ -12789,20 +12801,20 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
+      <c r="C6" s="576"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
       <c r="K6" s="513"/>
       <c r="L6" s="514"/>
       <c r="M6" s="74"/>
@@ -12815,22 +12827,22 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
+      <c r="C7" s="580"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
+      <c r="J7" s="583"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -13318,6 +13330,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13334,8 +13348,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13403,47 +13415,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="545"/>
+      <c r="C2" s="546"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="554" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="561" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="562"/>
+      <c r="K2" s="565">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="566"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="548"/>
+      <c r="C3" s="549"/>
+      <c r="D3" s="550"/>
+      <c r="E3" s="558" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="559"/>
+      <c r="G3" s="559"/>
+      <c r="H3" s="560"/>
+      <c r="I3" s="563"/>
+      <c r="J3" s="564"/>
+      <c r="K3" s="567"/>
+      <c r="L3" s="568"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13454,9 +13466,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="551"/>
+      <c r="C4" s="552"/>
+      <c r="D4" s="553"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13475,10 +13487,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="551"/>
+      <c r="C5" s="573"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13487,8 +13499,8 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
       <c r="K5" s="513"/>
       <c r="L5" s="514"/>
       <c r="M5" s="21"/>
@@ -13501,20 +13513,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="554"/>
+      <c r="C6" s="576"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
       <c r="K6" s="513"/>
       <c r="L6" s="514"/>
       <c r="M6" s="21"/>
@@ -13527,22 +13539,22 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="558"/>
+      <c r="C7" s="580"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="557" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="561"/>
+      <c r="J7" s="583"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -13832,17 +13844,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13850,6 +13851,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13921,60 +13933,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="616"/>
-      <c r="M2" s="620"/>
-      <c r="N2" s="621"/>
-      <c r="O2" s="621"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
-      <c r="R2" s="622"/>
+      <c r="L2" s="607"/>
+      <c r="M2" s="618"/>
+      <c r="N2" s="619"/>
+      <c r="O2" s="619"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
+      <c r="R2" s="620"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
-      <c r="M3" s="623"/>
-      <c r="N3" s="624"/>
-      <c r="O3" s="624"/>
-      <c r="P3" s="624"/>
-      <c r="Q3" s="624"/>
-      <c r="R3" s="625"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
+      <c r="M3" s="621"/>
+      <c r="N3" s="622"/>
+      <c r="O3" s="622"/>
+      <c r="P3" s="622"/>
+      <c r="Q3" s="622"/>
+      <c r="R3" s="623"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13983,20 +13995,20 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="623"/>
-      <c r="N4" s="624"/>
-      <c r="O4" s="624"/>
-      <c r="P4" s="624"/>
-      <c r="Q4" s="624"/>
-      <c r="R4" s="625"/>
+      <c r="M4" s="621"/>
+      <c r="N4" s="622"/>
+      <c r="O4" s="622"/>
+      <c r="P4" s="622"/>
+      <c r="Q4" s="622"/>
+      <c r="R4" s="623"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14005,73 +14017,73 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
-      <c r="M5" s="623"/>
-      <c r="N5" s="624"/>
-      <c r="O5" s="624"/>
-      <c r="P5" s="624"/>
-      <c r="Q5" s="624"/>
-      <c r="R5" s="625"/>
+      <c r="M5" s="621"/>
+      <c r="N5" s="622"/>
+      <c r="O5" s="622"/>
+      <c r="P5" s="622"/>
+      <c r="Q5" s="622"/>
+      <c r="R5" s="623"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
-      <c r="M6" s="623"/>
-      <c r="N6" s="624"/>
-      <c r="O6" s="624"/>
-      <c r="P6" s="624"/>
-      <c r="Q6" s="624"/>
-      <c r="R6" s="625"/>
+      <c r="M6" s="621"/>
+      <c r="N6" s="622"/>
+      <c r="O6" s="622"/>
+      <c r="P6" s="622"/>
+      <c r="Q6" s="622"/>
+      <c r="R6" s="623"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
       <c r="L7" s="504"/>
-      <c r="M7" s="623"/>
-      <c r="N7" s="624"/>
-      <c r="O7" s="624"/>
-      <c r="P7" s="624"/>
-      <c r="Q7" s="624"/>
-      <c r="R7" s="625"/>
+      <c r="M7" s="621"/>
+      <c r="N7" s="622"/>
+      <c r="O7" s="622"/>
+      <c r="P7" s="622"/>
+      <c r="Q7" s="622"/>
+      <c r="R7" s="623"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14493,12 +14505,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="547" t="s">
+      <c r="B21" s="569" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="548"/>
-      <c r="D21" s="548"/>
-      <c r="E21" s="549"/>
+      <c r="C21" s="570"/>
+      <c r="D21" s="570"/>
+      <c r="E21" s="571"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14544,6 +14556,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14556,13 +14575,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14627,47 +14639,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="596"/>
-      <c r="C2" s="597"/>
-      <c r="D2" s="598"/>
-      <c r="E2" s="605" t="s">
+      <c r="B2" s="587"/>
+      <c r="C2" s="588"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="596" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="607"/>
-      <c r="I2" s="611" t="s">
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="602" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="612"/>
-      <c r="K2" s="615">
+      <c r="J2" s="603"/>
+      <c r="K2" s="606">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="616"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="624"/>
+      <c r="Q2" s="624"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="608" t="s">
+      <c r="B3" s="590"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="599" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="609"/>
-      <c r="G3" s="609"/>
-      <c r="H3" s="610"/>
-      <c r="I3" s="613"/>
-      <c r="J3" s="614"/>
-      <c r="K3" s="617"/>
-      <c r="L3" s="618"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="600"/>
+      <c r="H3" s="601"/>
+      <c r="I3" s="604"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14678,9 +14690,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="603"/>
-      <c r="D4" s="604"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="594"/>
+      <c r="D4" s="595"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14699,10 +14711,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="550" t="s">
+      <c r="B5" s="572" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
+      <c r="C5" s="610"/>
       <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14711,9 +14723,9 @@
       <c r="F5" s="513"/>
       <c r="G5" s="513"/>
       <c r="H5" s="514"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="592"/>
+      <c r="I5" s="611"/>
+      <c r="J5" s="612"/>
+      <c r="K5" s="613"/>
       <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -14725,21 +14737,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="550" t="s">
+      <c r="B6" s="572" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="589"/>
+      <c r="C6" s="610"/>
       <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2б-500-1 (Штофф Колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="592"/>
+      <c r="E6" s="577"/>
+      <c r="F6" s="577"/>
+      <c r="G6" s="577"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="611"/>
+      <c r="J6" s="612"/>
+      <c r="K6" s="613"/>
       <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -14751,22 +14763,22 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
+      <c r="C7" s="614"/>
       <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="559"/>
-      <c r="F7" s="559"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="560"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="593"/>
+      <c r="J7" s="614"/>
       <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -15034,12 +15046,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="547" t="s">
+      <c r="B16" s="569" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="548"/>
-      <c r="D16" s="548"/>
-      <c r="E16" s="549"/>
+      <c r="C16" s="570"/>
+      <c r="D16" s="570"/>
+      <c r="E16" s="571"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -15085,6 +15097,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -15095,15 +15116,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
